--- a/806209426/localisation/excel/deployment_l_german.xlsx
+++ b/806209426/localisation/excel/deployment_l_german.xlsx
@@ -82,25 +82,25 @@
     <t xml:space="preserve"> DEPLOYMENT_TEMPLATE_ITEM_ADD:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken, um Ausbildung zu starten§!</t>
+    <t xml:space="preserve">§G§G Klicken, um Ausbildung zu starten §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOYMENT_TEMPLATE_ITEM_COPY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken, um in unsere einsetzbaren Vorlagen zu kopieren§!</t>
+    <t xml:space="preserve">§G§G Klicken, um in unsere einsetzbaren Vorlagen zu kopieren §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOYMENT_TEMPLATE_ITEM_EDIT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken, um Divisionsvorlage zu bearbeiten§!</t>
+    <t xml:space="preserve">§G§G Klicken, um Divisionsvorlage zu bearbeiten §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOYMENT_TEMPLATE_ITEM_VIEW:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken, um Divisionsvorlage anzusehen§!</t>
+    <t xml:space="preserve">§G§G Klicken, um Divisionsvorlage anzusehen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOYMENT_TRAINING:</t>
@@ -136,7 +136,7 @@
     <t xml:space="preserve"> DEPLOYMENT_EXPERIENCE_ESTIMATED_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nEnde der Ausbildung bei optimaler Versorgung: §Y$DATE$§!.</t>
+    <t xml:space="preserve">\nEnde der Ausbildung bei optimaler Versorgung: §Y§Y $DATE$ §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOYMENT_EQUIPMENT:</t>
@@ -196,7 +196,7 @@
     <t xml:space="preserve"> DEPLOYMENT_LINES_HIT_THE_DIVISION_CAP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDie Obergrenze für diese Vorlage wurde erreicht§! \n</t>
+    <t xml:space="preserve">§R§R Die Obergrenze für diese Vorlage wurde erreicht §!§!  \n</t>
   </si>
   <si>
     <t xml:space="preserve"> REGIMENTS_SELECTION_CANCEL:</t>
@@ -214,7 +214,7 @@
     <t xml:space="preserve"> DELETE_TEMPLATE:</t>
   </si>
   <si>
-    <t xml:space="preserve">Vorlage aus der Liste §Rlöschen§!.</t>
+    <t xml:space="preserve">Vorlage aus der Liste §R§R löschen §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> DELETE_TEMPLATE_TITLE:</t>
@@ -244,49 +244,49 @@
     <t xml:space="preserve"> DEPLOYMENT_NOT_ALLOWED_REASON_EQUIPMENT:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kann keine Einheit §Reinsetzen§!, die nicht ausgerüstet ist. Bitte warten, bis sie mit Ausrüstung versorgt wurde.\n</t>
+    <t xml:space="preserve">Kann keine Einheit §R§R einsetzen §!§! , die nicht ausgerüstet ist. Bitte warten, bis sie mit Ausrüstung versorgt wurde.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOYMENT_NOT_ALLOWED_REASON_MANPOWER:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kann keine Einheit §Reinsetzen§!, die keine Männer hat.</t>
+    <t xml:space="preserve">Kann keine Einheit §R§R einsetzen §!§! , die keine Männer hat.</t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOYMENT_NOT_ALLOWED_REASON_TRAINING:</t>
   </si>
   <si>
-    <t xml:space="preserve">Es kann keine Einheit §Reingesetzt§! werden, die nicht mindestens zu $VALUE|1H%$ ausgebildet ist (aktuell $CURRENT|1R%$)</t>
+    <t xml:space="preserve">Es kann keine Einheit §R§R eingesetzt §!§!  werden, die nicht mindestens zu $VALUE|1H%$ ausgebildet ist (aktuell $CURRENT|1R%$)</t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOYMENT_NOT_ALLOWED_REASON_SPECIAL_FORCES:</t>
   </si>
   <si>
-    <t xml:space="preserve">Es kann keine Einheit §Reingesetzt§! werden, durch die wir die Grenze für Spezialeinheiten überschreiten würden</t>
+    <t xml:space="preserve">Es kann keine Einheit §R§R eingesetzt §!§!  werden, durch die wir die Grenze für Spezialeinheiten überschreiten würden</t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOYMENT_NOT_ALLOWED_REASON_EXCEED_DIVISION_CAP:</t>
   </si>
   <si>
-    <t xml:space="preserve">Es kann keine Einheit §Reingesetzt§! werden, die uns über unser Vorlagenmaximum für Divisionen bringen würde.</t>
+    <t xml:space="preserve">Es kann keine Einheit §R§R eingesetzt §!§!  werden, die uns über unser Vorlagenmaximum für Divisionen bringen würde.</t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOYMENT_HOW_TO_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Einsätze aus der Liste auswählen und anschließend auf die markierten Provinzen auf der Karte §Gklicken§!, um sie zu einzusetzen.\n§gEinheiten, die mit unvollständiger Ausrüstung eingesetzt werden, erhalten diese durch Anfragen auf Verstärkung.\nBeachten Sie, dass Einheiten, die zu früh eingesetzt werden, keine ordnungsgemäße Ausbildung erhalten.§!</t>
+    <t xml:space="preserve">Einsätze aus der Liste auswählen und anschließend auf die markierten Provinzen auf der Karte §G§G klicken §!§! , um sie zu einzusetzen.\n§g§g Einheiten, die mit unvollständiger Ausrüstung eingesetzt werden, erhalten diese durch Anfragen auf Verstärkung.\nBeachten Sie, dass Einheiten, die zu früh eingesetzt werden, keine ordnungsgemäße Ausbildung erhalten. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> OPERATIONS_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YOperationen§!\n§TPriorität festlegen für Ausrüstung, die für die Vorbereitung und Durchführung von Operationen genutzt wird§!</t>
+    <t xml:space="preserve">§Y§Y Operationen §!§! \n§T§T Priorität festlegen für Ausrüstung, die für die Vorbereitung und Durchführung von Operationen genutzt wird §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> OPERATIONS_EMPTY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GAktuell keine Operationsanfragen.§!</t>
+    <t xml:space="preserve">§G§G Aktuell keine Operationsanfragen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> REINFORCEMENT:</t>
@@ -298,13 +298,13 @@
     <t xml:space="preserve"> REINFORCEMENT_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YVerstärkung§!\n§TPriorität für die Ausrüstung einstellen, mit der die aktiven Truppen verstärken werden, im Vergleich zur Einsatzliste und den Verbesserungen§!</t>
+    <t xml:space="preserve">§Y§Y Verstärkung §!§! \n§T§T Priorität für die Ausrüstung einstellen, mit der die aktiven Truppen verstärken werden, im Vergleich zur Einsatzliste und den Verbesserungen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> REINFORCEMENT_EMPTY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GAktuell keine Ausrüstungsanfragen.§!</t>
+    <t xml:space="preserve">§G§G Aktuell keine Ausrüstungsanfragen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> UPGRADES:</t>
@@ -316,13 +316,13 @@
     <t xml:space="preserve"> UPGRADES_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YVerbesserungen§!\n§TPriorität für die Ausrüstung einstellen, mit der die aktiven Truppen verstärken werden, im Vergleich zur Einsatzliste und den Verbesserungen§!</t>
+    <t xml:space="preserve">§Y§Y Verbesserungen §!§! \n§T§T Priorität für die Ausrüstung einstellen, mit der die aktiven Truppen verstärken werden, im Vergleich zur Einsatzliste und den Verbesserungen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> UPGRADES_EMPTY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GAktuell keine Aufrüstungsanfragen.§!</t>
+    <t xml:space="preserve">§G§G Aktuell keine Aufrüstungsanfragen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> group_infantry_title:</t>
@@ -382,13 +382,13 @@
     <t xml:space="preserve"> GARRISONS_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YGarnisonen§!\n§TPriorität festlegen für Ausrüstung, die an Garnisonen geht§!</t>
+    <t xml:space="preserve">§Y§Y Garnisonen §!§! \n§T§T Priorität festlegen für Ausrüstung, die an Garnisonen geht §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GARRISONS_EMPTY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GAktuell keine Garnisonsanfragen.§!</t>
+    <t xml:space="preserve">§G§G Aktuell keine Garnisonsanfragen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TIMED_ACTIVITY_TITLE:</t>
@@ -406,31 +406,31 @@
     <t xml:space="preserve"> TIMED_ACTIVITY_ENTRY_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§TPriorität für die Ausrüstung einstellen, mit der diese diplomatische Aktivität unterstützt wird.§!</t>
+    <t xml:space="preserve">§T§T Priorität für die Ausrüstung einstellen, mit der diese diplomatische Aktivität unterstützt wird. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TIMED_ACTIVITY_ENTRY_COMPLETE_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GMaximale Ausrüstung gesammelt.§!</t>
+    <t xml:space="preserve">§G§G Maximale Ausrüstung gesammelt. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> LAND_DEPLOYMENT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§TAuftrag für Landeinheit§!</t>
+    <t xml:space="preserve">§T§T Auftrag für Landeinheit §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_DEPLOYMENT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§TAuftrag für Flugzeug§!</t>
+    <t xml:space="preserve">§T§T Auftrag für Flugzeug §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> NAVAL_DEPLOYMENT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§TAuftrag für Schiff§!</t>
+    <t xml:space="preserve">§T§T Auftrag für Schiff §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DIVISION_DESIGNER_RENAME:</t>
@@ -481,31 +481,31 @@
     <t xml:space="preserve"> DO_NOT_CONTAINS_TEMPLATE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDiese Vorlage kann nicht gelöscht werden. Das Land umfasst nicht diese Vorlage.§!</t>
+    <t xml:space="preserve">§R§R Diese Vorlage kann nicht gelöscht werden. Das Land umfasst nicht diese Vorlage. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> HAS_ARMIES_WITH_TEMPLATE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDiese Vorlage kann nicht gelöscht werden, da sie von $AMOUNT|H$ Division(en) verwendet wird.§!</t>
+    <t xml:space="preserve">§R§R Diese Vorlage kann nicht gelöscht werden, da sie von $AMOUNT|H$ Division(en) verwendet wird. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> HAS_ARMIES_WITH_OLD_TEMPLATE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDiese Vorlage kann nicht gelöscht werden, weil $AMOUNT|H$ Division(en) dabei sind, von dieser Vorlage auf eine andere zu wechseln (d.h. sie warten auf Ausrüstung, die zur neuen Vorlage passt).§!</t>
+    <t xml:space="preserve">§R§R Diese Vorlage kann nicht gelöscht werden, weil $AMOUNT|H$ Division(en) dabei sind, von dieser Vorlage auf eine andere zu wechseln (d.h. sie warten auf Ausrüstung, die zur neuen Vorlage passt). §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> HAS_DEPLOYMENT_CONVEYORS_WITH_TEMPLATE:</t>
   </si>
   <si>
-    <t xml:space="preserve">Diese Vorlage kann nicht aus dem Land §Rentfernt§! werden. Land hat $AMOUNT|H$ Einsätze, die diese Vorlage verwenden.</t>
+    <t xml:space="preserve">Diese Vorlage kann nicht aus dem Land §R§R entfernt §!§!  werden. Land hat $AMOUNT|H$ Einsätze, die diese Vorlage verwenden.</t>
   </si>
   <si>
     <t xml:space="preserve"> HAS_GARRISON_WITH_TEMPLATE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDiese Vorlage kann nicht gelöscht werden, weil sie als Garnisonsvorlage für einige besetzte Gebiete verwendet wird.§!</t>
+    <t xml:space="preserve">§R§R Diese Vorlage kann nicht gelöscht werden, weil sie als Garnisonsvorlage für einige besetzte Gebiete verwendet wird. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOYMENT_TEMPLATE_LABEL:</t>
@@ -565,7 +565,7 @@
     <t xml:space="preserve"> ADD_CONVEYOR_LINE_BUTTON_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fügt eine weitere Einheit $CONVEYOR|H$ zur parallelen Produktion hinzu.\n\n§GUmschalt+Maustaste§!, um 5 Einheiten hinzuzufügen</t>
+    <t xml:space="preserve">Fügt eine weitere Einheit $CONVEYOR|H$ zur parallelen Produktion hinzu.\n\n§G§G Umschalt+Maustaste §!§! , um 5 Einheiten hinzuzufügen</t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_GENERIC_NAME_EDIT_DESC:</t>
@@ -583,61 +583,61 @@
     <t xml:space="preserve"> CANCEL_CONVEYOR_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">Produktion aller Einheiten §Rabbrechen§!.</t>
+    <t xml:space="preserve">Produktion aller Einheiten §R§R abbrechen §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOY_CONVEYOR_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um alle Einheiten sofort einzusetzen.</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um alle Einheiten sofort einzusetzen.</t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOY_CONVEYOR_DISABLED_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">Es ist keine Einheit §Reinsatzbereit§!</t>
+    <t xml:space="preserve">Es ist keine Einheit §R§R einsatzbereit §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_CANCEL_TITLE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RAbbrechen§! Produktion</t>
+    <t xml:space="preserve">§R§R Abbrechen §!§!  Produktion</t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_CANCEL_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wollen Sie die Produktion aller Einheiten wirklich §Rabbrechen§!?</t>
+    <t xml:space="preserve">Wollen Sie die Produktion aller Einheiten wirklich §R§R abbrechen §!§! ?</t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_LINE_CANCEL_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Produktion dieser Einheit §Rabbrechen§!.</t>
+    <t xml:space="preserve">Produktion dieser Einheit §R§R abbrechen §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_LINE_CANCEL_ACCEPT_TITLE:</t>
   </si>
   <si>
-    <t xml:space="preserve">Auftrag §Rabbrechen§!</t>
+    <t xml:space="preserve">Auftrag §R§R abbrechen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_LINE_CANCEL_ACCEPT_SINGLE_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wollen Sie die Produktion dieses Auftrags wirklich §Rabbrechen§!?\n(Einheit wird ebenfalls §Rentfernt§! )</t>
+    <t xml:space="preserve">Wollen Sie die Produktion dieses Auftrags wirklich §R§R abbrechen §!§! ?\n(Einheit wird ebenfalls §R§R entfernt §!§!  )</t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_LINE_CANCEL_ACCEPT_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wollen Sie die Produktion dieser Auftrags wirklich §Rabbrechen§!?</t>
+    <t xml:space="preserve">Wollen Sie die Produktion dieser Auftrags wirklich §R§R abbrechen §!§! ?</t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_GROUP_ASSIGN_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um Einheit dem Befehl zuzuweisen.\n§GRechtsklicken§!, um Befehlszuweisung zurückzusetzen.</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um Einheit dem Befehl zuzuweisen.\n§G§G Rechtsklicken §!§! , um Befehlszuweisung zurückzusetzen.</t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_GROUP_CAN_NOT_ASSIGN_NO_ORDERS_DESC:</t>
@@ -655,19 +655,19 @@
     <t xml:space="preserve"> CONVEYOR_SET_LOCATION_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um Einsatzgebiet für diese Einheit festzulegen.\n§GRechtsklicken§!, um Gebiet zurückzusetzen.</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um Einsatzgebiet für diese Einheit festzulegen.\n§G§G Rechtsklicken §!§! , um Gebiet zurückzusetzen.</t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_SET_COLONIAL_LOCATION_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um den Einsatzort für diesen Einsatz festzulegen.\n§GRechtsklicken§!, um den Ort zurückzusetzen.\n§YDiese Kolonialvorlage kann nur im Ursprungsland eingesetzt werden!§!</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um den Einsatzort für diesen Einsatz festzulegen.\n§G§G Rechtsklicken §!§! , um den Ort zurückzusetzen.\n§Y§Y Diese Kolonialvorlage kann nur im Ursprungsland eingesetzt werden! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_SET_LOCATION_NOT_SET:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RKein Gebiet festgelegt§!</t>
+    <t xml:space="preserve">§R§R Kein Gebiet festgelegt §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_LINE_PREFIX_NAME_EDIT_DESC:</t>
@@ -679,7 +679,7 @@
     <t xml:space="preserve"> CONVEYOR_LINE_DEPLOY_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um diese Einheit sofort einzusetzen.</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um diese Einheit sofort einzusetzen.</t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_SERIES_INCREASE_DESC:</t>
@@ -721,43 +721,43 @@
     <t xml:space="preserve"> CONVEYOR_CAN_NOT_TRAIN:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RNicht genügend Ausrüstung zur Ausbildung§!</t>
+    <t xml:space="preserve">§R§R Nicht genügend Ausrüstung zur Ausbildung §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_CAN_NOT_MANPOWER_TRAIN:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RNicht genügend Mannstärke zur Ausbildung§!</t>
+    <t xml:space="preserve">§R§R Nicht genügend Mannstärke zur Ausbildung §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_CAN_NOT_TRAIN_COUNT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RNicht genügend Mannstärke, um $DIVS|H$ der Divisionen auszubilden§!</t>
+    <t xml:space="preserve">§R§R Nicht genügend Mannstärke, um $DIVS|H$ der Divisionen auszubilden §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_COLLAPSE_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§! zum Ausklappen</t>
+    <t xml:space="preserve">§G§G Klicken §!§!  zum Ausklappen</t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_EXPAND_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§! zum Einklappen</t>
+    <t xml:space="preserve">§G§G Klicken §!§!  zum Einklappen</t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_MOVE_UP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um nach oben zu bewegen\n§GUmschalt+Klicken§!, um ganz nach oben zu bewegen</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um nach oben zu bewegen\n§G§G Umschalt+Klicken §!§! , um ganz nach oben zu bewegen</t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_MOVE_DOWN:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um nach unten zu bewegen\n§GUmschalt+Klicken§!, um ganz nach unten zu bewegen</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um nach unten zu bewegen\n§G§G Umschalt+Klicken §!§! , um ganz nach unten zu bewegen</t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOYMENT_LOW_PRIORITY_DESC:</t>
@@ -781,7 +781,7 @@
     <t xml:space="preserve"> CONVEYOR_HAS_BAD_LOCATION:</t>
   </si>
   <si>
-    <t xml:space="preserve">Das Zielgebiet für die Einheit ist §Runzulässig§!.</t>
+    <t xml:space="preserve">Das Zielgebiet für die Einheit ist §R§R unzulässig §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> CONVEYOR_TRAINING_NOT_FINISHED:</t>
@@ -805,37 +805,37 @@
     <t xml:space="preserve"> DEPLOYMENT_LINE_NAME_OVERRIDE_CANCEL:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HIndividuellen Namen löschen.§!\nEs wird versucht, den ursprünglich zugewiesenen Namen wiederherzustellen, sofern dieser nicht bereits vergeben ist.</t>
+    <t xml:space="preserve">§H§H Individuellen Namen löschen. §!§! \nEs wird versucht, den ursprünglich zugewiesenen Namen wiederherzustellen, sofern dieser nicht bereits vergeben ist.</t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOYMENT_LINE_CHOOSE_OTHER_NAME:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HWählen Sie einen anderen historischen Namen.§!\n§GKlicken§!, um eine Liste aller noch verfügbaren historischen Namen anzuzeigen. Sie können die Gruppe der Namen ändern, indem Sie die Vorlage bearbeiten.</t>
+    <t xml:space="preserve">§H§H Wählen Sie einen anderen historischen Namen. §!§! \n§G§G Klicken §!§! , um eine Liste aller noch verfügbaren historischen Namen anzuzeigen. Sie können die Gruppe der Namen ändern, indem Sie die Vorlage bearbeiten.</t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOYMENT_LINE_EDIT_NAME:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§! und tippen, um einen individuellen Namen zu verwenden.</t>
+    <t xml:space="preserve">§G§G Klicken §!§!  und tippen, um einen individuellen Namen zu verwenden.</t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOYMENT_LINE_OUT_OF_NAMES:</t>
   </si>
   <si>
-    <t xml:space="preserve">§gKeine historischen Namen mehr verfügbar.§!</t>
+    <t xml:space="preserve">§g§g Keine historischen Namen mehr verfügbar. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> MISSING_SPECIAL_FORCES_CAP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RGrenze für Spezialeinheiten reicht nicht aus§!</t>
+    <t xml:space="preserve">§R§R Grenze für Spezialeinheiten reicht nicht aus §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EXCEEDING_DIVISION_CAP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RÜberschreitet das Maximum an Divisionsvorlagen§!</t>
+    <t xml:space="preserve">§R§R Überschreitet das Maximum an Divisionsvorlagen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TRAINING_HALTED:</t>
@@ -859,7 +859,7 @@
     <t xml:space="preserve"> DEPLOYMENT_EXILE_WITH_NO_CAPITAL:</t>
   </si>
   <si>
-    <t xml:space="preserve">Als §HExilregierung§! müssen wir eine §HHauptstadt§! kontrollieren, um neue Divisionen auszubilden.</t>
+    <t xml:space="preserve">Als §H§H Exilregierung §!§!  müssen wir eine §H§H Hauptstadt §!§!  kontrollieren, um neue Divisionen auszubilden.</t>
   </si>
   <si>
     <t xml:space="preserve"> CANT_CHANGE_DUE_TO_SPECIAL_FORCES_CAP:</t>
@@ -925,7 +925,7 @@
     <t xml:space="preserve"> SHOW_DECOMMISSIONED_TEMPLATES:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HAußer Betrieb gesetzte Vorlagen§! zeigen</t>
+    <t xml:space="preserve">§H§H Außer Betrieb gesetzte Vorlagen §!§!  zeigen</t>
   </si>
   <si>
     <t xml:space="preserve"> DECOMMISSION_TEMPLATE_TOGGLE_ON:</t>
@@ -937,7 +937,7 @@
     <t xml:space="preserve"> DECOMMISSION_TEMPLATE_TOGGLE_ON_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§! Sie, um diese Vorlage außer Betrieb zu setzen, wodurch sie als inaktiv markiert wird.</t>
+    <t xml:space="preserve">§G§G Klicken §!§!  Sie, um diese Vorlage außer Betrieb zu setzen, wodurch sie als inaktiv markiert wird.</t>
   </si>
   <si>
     <t xml:space="preserve"> DECOMMISSION_TEMPLATE_TOGGLE_OFF:</t>
@@ -949,7 +949,7 @@
     <t xml:space="preserve"> DECOMMISSION_TEMPLATE_TOGGLE_OFF_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§! Sie, um diese Vorlage wieder in Betrieb zu nehmen, wodurch sie als aktiv markiert wird.</t>
+    <t xml:space="preserve">§G§G Klicken §!§!  Sie, um diese Vorlage wieder in Betrieb zu nehmen, wodurch sie als aktiv markiert wird.</t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOYMENT_VIEW_SPECIAL_FORCES_DETAILS:</t>
@@ -1175,8 +1175,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D157" activeCellId="0" sqref="D1:D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1352,11 +1352,11 @@
       </c>
       <c r="C11" s="1" t="str">
         <f aca="false">A11 &amp;" " &amp;"""" &amp;B11 &amp;""""</f>
-        <v> DEPLOYMENT_TEMPLATE_ITEM_ADD: "§GKlicken, um Ausbildung zu starten§!"</v>
+        <v> DEPLOYMENT_TEMPLATE_ITEM_ADD: "§G§G Klicken, um Ausbildung zu starten §!§! "</v>
       </c>
       <c r="D11" s="1" t="str">
         <f aca="false">IF(ISBLANK(A11),"",C11)</f>
-        <v> DEPLOYMENT_TEMPLATE_ITEM_ADD: "§GKlicken, um Ausbildung zu starten§!"</v>
+        <v> DEPLOYMENT_TEMPLATE_ITEM_ADD: "§G§G Klicken, um Ausbildung zu starten §!§! "</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,11 +1368,11 @@
       </c>
       <c r="C12" s="1" t="str">
         <f aca="false">A12 &amp;" " &amp;"""" &amp;B12 &amp;""""</f>
-        <v> DEPLOYMENT_TEMPLATE_ITEM_COPY: "§GKlicken, um in unsere einsetzbaren Vorlagen zu kopieren§!"</v>
+        <v> DEPLOYMENT_TEMPLATE_ITEM_COPY: "§G§G Klicken, um in unsere einsetzbaren Vorlagen zu kopieren §!§! "</v>
       </c>
       <c r="D12" s="1" t="str">
         <f aca="false">IF(ISBLANK(A12),"",C12)</f>
-        <v> DEPLOYMENT_TEMPLATE_ITEM_COPY: "§GKlicken, um in unsere einsetzbaren Vorlagen zu kopieren§!"</v>
+        <v> DEPLOYMENT_TEMPLATE_ITEM_COPY: "§G§G Klicken, um in unsere einsetzbaren Vorlagen zu kopieren §!§! "</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,11 +1384,11 @@
       </c>
       <c r="C13" s="1" t="str">
         <f aca="false">A13 &amp;" " &amp;"""" &amp;B13 &amp;""""</f>
-        <v> DEPLOYMENT_TEMPLATE_ITEM_EDIT: "§GKlicken, um Divisionsvorlage zu bearbeiten§!"</v>
+        <v> DEPLOYMENT_TEMPLATE_ITEM_EDIT: "§G§G Klicken, um Divisionsvorlage zu bearbeiten §!§! "</v>
       </c>
       <c r="D13" s="1" t="str">
         <f aca="false">IF(ISBLANK(A13),"",C13)</f>
-        <v> DEPLOYMENT_TEMPLATE_ITEM_EDIT: "§GKlicken, um Divisionsvorlage zu bearbeiten§!"</v>
+        <v> DEPLOYMENT_TEMPLATE_ITEM_EDIT: "§G§G Klicken, um Divisionsvorlage zu bearbeiten §!§! "</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,11 +1400,11 @@
       </c>
       <c r="C14" s="1" t="str">
         <f aca="false">A14 &amp;" " &amp;"""" &amp;B14 &amp;""""</f>
-        <v> DEPLOYMENT_TEMPLATE_ITEM_VIEW: "§GKlicken, um Divisionsvorlage anzusehen§!"</v>
+        <v> DEPLOYMENT_TEMPLATE_ITEM_VIEW: "§G§G Klicken, um Divisionsvorlage anzusehen §!§! "</v>
       </c>
       <c r="D14" s="1" t="str">
         <f aca="false">IF(ISBLANK(A14),"",C14)</f>
-        <v> DEPLOYMENT_TEMPLATE_ITEM_VIEW: "§GKlicken, um Divisionsvorlage anzusehen§!"</v>
+        <v> DEPLOYMENT_TEMPLATE_ITEM_VIEW: "§G§G Klicken, um Divisionsvorlage anzusehen §!§! "</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,11 +1496,11 @@
       </c>
       <c r="C20" s="1" t="str">
         <f aca="false">A20 &amp;" " &amp;"""" &amp;B20 &amp;""""</f>
-        <v> DEPLOYMENT_EXPERIENCE_ESTIMATED_DESC: "\nEnde der Ausbildung bei optimaler Versorgung: §Y$DATE$§!."</v>
+        <v> DEPLOYMENT_EXPERIENCE_ESTIMATED_DESC: "\nEnde der Ausbildung bei optimaler Versorgung: §Y§Y $DATE$ §!§! ."</v>
       </c>
       <c r="D20" s="1" t="str">
         <f aca="false">IF(ISBLANK(A20),"",C20)</f>
-        <v> DEPLOYMENT_EXPERIENCE_ESTIMATED_DESC: "\nEnde der Ausbildung bei optimaler Versorgung: §Y$DATE$§!."</v>
+        <v> DEPLOYMENT_EXPERIENCE_ESTIMATED_DESC: "\nEnde der Ausbildung bei optimaler Versorgung: §Y§Y $DATE$ §!§! ."</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,11 +1656,11 @@
       </c>
       <c r="C30" s="1" t="str">
         <f aca="false">A30 &amp;" " &amp;"""" &amp;B30 &amp;""""</f>
-        <v> DEPLOYMENT_LINES_HIT_THE_DIVISION_CAP: "§RDie Obergrenze für diese Vorlage wurde erreicht§! \n"</v>
+        <v> DEPLOYMENT_LINES_HIT_THE_DIVISION_CAP: "§R§R Die Obergrenze für diese Vorlage wurde erreicht §!§!  \n"</v>
       </c>
       <c r="D30" s="1" t="str">
         <f aca="false">IF(ISBLANK(A30),"",C30)</f>
-        <v> DEPLOYMENT_LINES_HIT_THE_DIVISION_CAP: "§RDie Obergrenze für diese Vorlage wurde erreicht§! \n"</v>
+        <v> DEPLOYMENT_LINES_HIT_THE_DIVISION_CAP: "§R§R Die Obergrenze für diese Vorlage wurde erreicht §!§!  \n"</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,11 +1704,11 @@
       </c>
       <c r="C33" s="1" t="str">
         <f aca="false">A33 &amp;" " &amp;"""" &amp;B33 &amp;""""</f>
-        <v> DELETE_TEMPLATE: "Vorlage aus der Liste §Rlöschen§!."</v>
+        <v> DELETE_TEMPLATE: "Vorlage aus der Liste §R§R löschen §!§! ."</v>
       </c>
       <c r="D33" s="1" t="str">
         <f aca="false">IF(ISBLANK(A33),"",C33)</f>
-        <v> DELETE_TEMPLATE: "Vorlage aus der Liste §Rlöschen§!."</v>
+        <v> DELETE_TEMPLATE: "Vorlage aus der Liste §R§R löschen §!§! ."</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1784,11 +1784,11 @@
       </c>
       <c r="C38" s="1" t="str">
         <f aca="false">A38 &amp;" " &amp;"""" &amp;B38 &amp;""""</f>
-        <v> DEPLOYMENT_NOT_ALLOWED_REASON_EQUIPMENT: "Kann keine Einheit §Reinsetzen§!, die nicht ausgerüstet ist. Bitte warten, bis sie mit Ausrüstung versorgt wurde.\n"</v>
+        <v> DEPLOYMENT_NOT_ALLOWED_REASON_EQUIPMENT: "Kann keine Einheit §R§R einsetzen §!§! , die nicht ausgerüstet ist. Bitte warten, bis sie mit Ausrüstung versorgt wurde.\n"</v>
       </c>
       <c r="D38" s="1" t="str">
         <f aca="false">IF(ISBLANK(A38),"",C38)</f>
-        <v> DEPLOYMENT_NOT_ALLOWED_REASON_EQUIPMENT: "Kann keine Einheit §Reinsetzen§!, die nicht ausgerüstet ist. Bitte warten, bis sie mit Ausrüstung versorgt wurde.\n"</v>
+        <v> DEPLOYMENT_NOT_ALLOWED_REASON_EQUIPMENT: "Kann keine Einheit §R§R einsetzen §!§! , die nicht ausgerüstet ist. Bitte warten, bis sie mit Ausrüstung versorgt wurde.\n"</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,11 +1800,11 @@
       </c>
       <c r="C39" s="1" t="str">
         <f aca="false">A39 &amp;" " &amp;"""" &amp;B39 &amp;""""</f>
-        <v> DEPLOYMENT_NOT_ALLOWED_REASON_MANPOWER: "Kann keine Einheit §Reinsetzen§!, die keine Männer hat."</v>
+        <v> DEPLOYMENT_NOT_ALLOWED_REASON_MANPOWER: "Kann keine Einheit §R§R einsetzen §!§! , die keine Männer hat."</v>
       </c>
       <c r="D39" s="1" t="str">
         <f aca="false">IF(ISBLANK(A39),"",C39)</f>
-        <v> DEPLOYMENT_NOT_ALLOWED_REASON_MANPOWER: "Kann keine Einheit §Reinsetzen§!, die keine Männer hat."</v>
+        <v> DEPLOYMENT_NOT_ALLOWED_REASON_MANPOWER: "Kann keine Einheit §R§R einsetzen §!§! , die keine Männer hat."</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,11 +1816,11 @@
       </c>
       <c r="C40" s="1" t="str">
         <f aca="false">A40 &amp;" " &amp;"""" &amp;B40 &amp;""""</f>
-        <v> DEPLOYMENT_NOT_ALLOWED_REASON_TRAINING: "Es kann keine Einheit §Reingesetzt§! werden, die nicht mindestens zu $VALUE|1H%$ ausgebildet ist (aktuell $CURRENT|1R%$)"</v>
+        <v> DEPLOYMENT_NOT_ALLOWED_REASON_TRAINING: "Es kann keine Einheit §R§R eingesetzt §!§!  werden, die nicht mindestens zu $VALUE|1H%$ ausgebildet ist (aktuell $CURRENT|1R%$)"</v>
       </c>
       <c r="D40" s="1" t="str">
         <f aca="false">IF(ISBLANK(A40),"",C40)</f>
-        <v> DEPLOYMENT_NOT_ALLOWED_REASON_TRAINING: "Es kann keine Einheit §Reingesetzt§! werden, die nicht mindestens zu $VALUE|1H%$ ausgebildet ist (aktuell $CURRENT|1R%$)"</v>
+        <v> DEPLOYMENT_NOT_ALLOWED_REASON_TRAINING: "Es kann keine Einheit §R§R eingesetzt §!§!  werden, die nicht mindestens zu $VALUE|1H%$ ausgebildet ist (aktuell $CURRENT|1R%$)"</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,11 +1832,11 @@
       </c>
       <c r="C41" s="1" t="str">
         <f aca="false">A41 &amp;" " &amp;"""" &amp;B41 &amp;""""</f>
-        <v> DEPLOYMENT_NOT_ALLOWED_REASON_SPECIAL_FORCES: "Es kann keine Einheit §Reingesetzt§! werden, durch die wir die Grenze für Spezialeinheiten überschreiten würden"</v>
+        <v> DEPLOYMENT_NOT_ALLOWED_REASON_SPECIAL_FORCES: "Es kann keine Einheit §R§R eingesetzt §!§!  werden, durch die wir die Grenze für Spezialeinheiten überschreiten würden"</v>
       </c>
       <c r="D41" s="1" t="str">
         <f aca="false">IF(ISBLANK(A41),"",C41)</f>
-        <v> DEPLOYMENT_NOT_ALLOWED_REASON_SPECIAL_FORCES: "Es kann keine Einheit §Reingesetzt§! werden, durch die wir die Grenze für Spezialeinheiten überschreiten würden"</v>
+        <v> DEPLOYMENT_NOT_ALLOWED_REASON_SPECIAL_FORCES: "Es kann keine Einheit §R§R eingesetzt §!§!  werden, durch die wir die Grenze für Spezialeinheiten überschreiten würden"</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1848,11 +1848,11 @@
       </c>
       <c r="C42" s="1" t="str">
         <f aca="false">A42 &amp;" " &amp;"""" &amp;B42 &amp;""""</f>
-        <v> DEPLOYMENT_NOT_ALLOWED_REASON_EXCEED_DIVISION_CAP: "Es kann keine Einheit §Reingesetzt§! werden, die uns über unser Vorlagenmaximum für Divisionen bringen würde."</v>
+        <v> DEPLOYMENT_NOT_ALLOWED_REASON_EXCEED_DIVISION_CAP: "Es kann keine Einheit §R§R eingesetzt §!§!  werden, die uns über unser Vorlagenmaximum für Divisionen bringen würde."</v>
       </c>
       <c r="D42" s="1" t="str">
         <f aca="false">IF(ISBLANK(A42),"",C42)</f>
-        <v> DEPLOYMENT_NOT_ALLOWED_REASON_EXCEED_DIVISION_CAP: "Es kann keine Einheit §Reingesetzt§! werden, die uns über unser Vorlagenmaximum für Divisionen bringen würde."</v>
+        <v> DEPLOYMENT_NOT_ALLOWED_REASON_EXCEED_DIVISION_CAP: "Es kann keine Einheit §R§R eingesetzt §!§!  werden, die uns über unser Vorlagenmaximum für Divisionen bringen würde."</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,11 +1864,11 @@
       </c>
       <c r="C43" s="1" t="str">
         <f aca="false">A43 &amp;" " &amp;"""" &amp;B43 &amp;""""</f>
-        <v> DEPLOYMENT_HOW_TO_DESC: "Einsätze aus der Liste auswählen und anschließend auf die markierten Provinzen auf der Karte §Gklicken§!, um sie zu einzusetzen.\n§gEinheiten, die mit unvollständiger Ausrüstung eingesetzt werden, erhalten diese durch Anfragen auf Verstärkung.\nBeachten Sie, dass Einheiten, die zu früh eingesetzt werden, keine ordnungsgemäße Ausbildung erhalten.§!"</v>
+        <v> DEPLOYMENT_HOW_TO_DESC: "Einsätze aus der Liste auswählen und anschließend auf die markierten Provinzen auf der Karte §G§G klicken §!§! , um sie zu einzusetzen.\n§g§g Einheiten, die mit unvollständiger Ausrüstung eingesetzt werden, erhalten diese durch Anfragen auf Verstärkung.\nBeachten Sie, dass Einheiten, die zu früh eingesetzt werden, keine ordnungsgemäße Ausbildung erhalten. §!§! "</v>
       </c>
       <c r="D43" s="1" t="str">
         <f aca="false">IF(ISBLANK(A43),"",C43)</f>
-        <v> DEPLOYMENT_HOW_TO_DESC: "Einsätze aus der Liste auswählen und anschließend auf die markierten Provinzen auf der Karte §Gklicken§!, um sie zu einzusetzen.\n§gEinheiten, die mit unvollständiger Ausrüstung eingesetzt werden, erhalten diese durch Anfragen auf Verstärkung.\nBeachten Sie, dass Einheiten, die zu früh eingesetzt werden, keine ordnungsgemäße Ausbildung erhalten.§!"</v>
+        <v> DEPLOYMENT_HOW_TO_DESC: "Einsätze aus der Liste auswählen und anschließend auf die markierten Provinzen auf der Karte §G§G klicken §!§! , um sie zu einzusetzen.\n§g§g Einheiten, die mit unvollständiger Ausrüstung eingesetzt werden, erhalten diese durch Anfragen auf Verstärkung.\nBeachten Sie, dass Einheiten, die zu früh eingesetzt werden, keine ordnungsgemäße Ausbildung erhalten. §!§! "</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,11 +1880,11 @@
       </c>
       <c r="C44" s="1" t="str">
         <f aca="false">A44 &amp;" " &amp;"""" &amp;B44 &amp;""""</f>
-        <v> OPERATIONS_DESC: "§YOperationen§!\n§TPriorität festlegen für Ausrüstung, die für die Vorbereitung und Durchführung von Operationen genutzt wird§!"</v>
+        <v> OPERATIONS_DESC: "§Y§Y Operationen §!§! \n§T§T Priorität festlegen für Ausrüstung, die für die Vorbereitung und Durchführung von Operationen genutzt wird §!§! "</v>
       </c>
       <c r="D44" s="1" t="str">
         <f aca="false">IF(ISBLANK(A44),"",C44)</f>
-        <v> OPERATIONS_DESC: "§YOperationen§!\n§TPriorität festlegen für Ausrüstung, die für die Vorbereitung und Durchführung von Operationen genutzt wird§!"</v>
+        <v> OPERATIONS_DESC: "§Y§Y Operationen §!§! \n§T§T Priorität festlegen für Ausrüstung, die für die Vorbereitung und Durchführung von Operationen genutzt wird §!§! "</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1896,11 +1896,11 @@
       </c>
       <c r="C45" s="1" t="str">
         <f aca="false">A45 &amp;" " &amp;"""" &amp;B45 &amp;""""</f>
-        <v> OPERATIONS_EMPTY: "§GAktuell keine Operationsanfragen.§!"</v>
+        <v> OPERATIONS_EMPTY: "§G§G Aktuell keine Operationsanfragen. §!§! "</v>
       </c>
       <c r="D45" s="1" t="str">
         <f aca="false">IF(ISBLANK(A45),"",C45)</f>
-        <v> OPERATIONS_EMPTY: "§GAktuell keine Operationsanfragen.§!"</v>
+        <v> OPERATIONS_EMPTY: "§G§G Aktuell keine Operationsanfragen. §!§! "</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="C47" s="1" t="str">
         <f aca="false">A47 &amp;" " &amp;"""" &amp;B47 &amp;""""</f>
-        <v> REINFORCEMENT_DESC: "§YVerstärkung§!\n§TPriorität für die Ausrüstung einstellen, mit der die aktiven Truppen verstärken werden, im Vergleich zur Einsatzliste und den Verbesserungen§!"</v>
+        <v> REINFORCEMENT_DESC: "§Y§Y Verstärkung §!§! \n§T§T Priorität für die Ausrüstung einstellen, mit der die aktiven Truppen verstärken werden, im Vergleich zur Einsatzliste und den Verbesserungen §!§! "</v>
       </c>
       <c r="D47" s="1" t="str">
         <f aca="false">IF(ISBLANK(A47),"",C47)</f>
-        <v> REINFORCEMENT_DESC: "§YVerstärkung§!\n§TPriorität für die Ausrüstung einstellen, mit der die aktiven Truppen verstärken werden, im Vergleich zur Einsatzliste und den Verbesserungen§!"</v>
+        <v> REINFORCEMENT_DESC: "§Y§Y Verstärkung §!§! \n§T§T Priorität für die Ausrüstung einstellen, mit der die aktiven Truppen verstärken werden, im Vergleich zur Einsatzliste und den Verbesserungen §!§! "</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,11 +1944,11 @@
       </c>
       <c r="C48" s="1" t="str">
         <f aca="false">A48 &amp;" " &amp;"""" &amp;B48 &amp;""""</f>
-        <v> REINFORCEMENT_EMPTY: "§GAktuell keine Ausrüstungsanfragen.§!"</v>
+        <v> REINFORCEMENT_EMPTY: "§G§G Aktuell keine Ausrüstungsanfragen. §!§! "</v>
       </c>
       <c r="D48" s="1" t="str">
         <f aca="false">IF(ISBLANK(A48),"",C48)</f>
-        <v> REINFORCEMENT_EMPTY: "§GAktuell keine Ausrüstungsanfragen.§!"</v>
+        <v> REINFORCEMENT_EMPTY: "§G§G Aktuell keine Ausrüstungsanfragen. §!§! "</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,11 +1976,11 @@
       </c>
       <c r="C50" s="1" t="str">
         <f aca="false">A50 &amp;" " &amp;"""" &amp;B50 &amp;""""</f>
-        <v> UPGRADES_DESC: "§YVerbesserungen§!\n§TPriorität für die Ausrüstung einstellen, mit der die aktiven Truppen verstärken werden, im Vergleich zur Einsatzliste und den Verbesserungen§!"</v>
+        <v> UPGRADES_DESC: "§Y§Y Verbesserungen §!§! \n§T§T Priorität für die Ausrüstung einstellen, mit der die aktiven Truppen verstärken werden, im Vergleich zur Einsatzliste und den Verbesserungen §!§! "</v>
       </c>
       <c r="D50" s="1" t="str">
         <f aca="false">IF(ISBLANK(A50),"",C50)</f>
-        <v> UPGRADES_DESC: "§YVerbesserungen§!\n§TPriorität für die Ausrüstung einstellen, mit der die aktiven Truppen verstärken werden, im Vergleich zur Einsatzliste und den Verbesserungen§!"</v>
+        <v> UPGRADES_DESC: "§Y§Y Verbesserungen §!§! \n§T§T Priorität für die Ausrüstung einstellen, mit der die aktiven Truppen verstärken werden, im Vergleich zur Einsatzliste und den Verbesserungen §!§! "</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,11 +1992,11 @@
       </c>
       <c r="C51" s="1" t="str">
         <f aca="false">A51 &amp;" " &amp;"""" &amp;B51 &amp;""""</f>
-        <v> UPGRADES_EMPTY: "§GAktuell keine Aufrüstungsanfragen.§!"</v>
+        <v> UPGRADES_EMPTY: "§G§G Aktuell keine Aufrüstungsanfragen. §!§! "</v>
       </c>
       <c r="D51" s="1" t="str">
         <f aca="false">IF(ISBLANK(A51),"",C51)</f>
-        <v> UPGRADES_EMPTY: "§GAktuell keine Aufrüstungsanfragen.§!"</v>
+        <v> UPGRADES_EMPTY: "§G§G Aktuell keine Aufrüstungsanfragen. §!§! "</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2152,11 +2152,11 @@
       </c>
       <c r="C61" s="1" t="str">
         <f aca="false">A61 &amp;" " &amp;"""" &amp;B61 &amp;""""</f>
-        <v> GARRISONS_DESC: "§YGarnisonen§!\n§TPriorität festlegen für Ausrüstung, die an Garnisonen geht§!"</v>
+        <v> GARRISONS_DESC: "§Y§Y Garnisonen §!§! \n§T§T Priorität festlegen für Ausrüstung, die an Garnisonen geht §!§! "</v>
       </c>
       <c r="D61" s="1" t="str">
         <f aca="false">IF(ISBLANK(A61),"",C61)</f>
-        <v> GARRISONS_DESC: "§YGarnisonen§!\n§TPriorität festlegen für Ausrüstung, die an Garnisonen geht§!"</v>
+        <v> GARRISONS_DESC: "§Y§Y Garnisonen §!§! \n§T§T Priorität festlegen für Ausrüstung, die an Garnisonen geht §!§! "</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="C62" s="1" t="str">
         <f aca="false">A62 &amp;" " &amp;"""" &amp;B62 &amp;""""</f>
-        <v> GARRISONS_EMPTY: "§GAktuell keine Garnisonsanfragen.§!"</v>
+        <v> GARRISONS_EMPTY: "§G§G Aktuell keine Garnisonsanfragen. §!§! "</v>
       </c>
       <c r="D62" s="1" t="str">
         <f aca="false">IF(ISBLANK(A62),"",C62)</f>
-        <v> GARRISONS_EMPTY: "§GAktuell keine Garnisonsanfragen.§!"</v>
+        <v> GARRISONS_EMPTY: "§G§G Aktuell keine Garnisonsanfragen. §!§! "</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,11 +2216,11 @@
       </c>
       <c r="C65" s="1" t="str">
         <f aca="false">A65 &amp;" " &amp;"""" &amp;B65 &amp;""""</f>
-        <v> TIMED_ACTIVITY_ENTRY_DESC: "§TPriorität für die Ausrüstung einstellen, mit der diese diplomatische Aktivität unterstützt wird.§!"</v>
+        <v> TIMED_ACTIVITY_ENTRY_DESC: "§T§T Priorität für die Ausrüstung einstellen, mit der diese diplomatische Aktivität unterstützt wird. §!§! "</v>
       </c>
       <c r="D65" s="1" t="str">
         <f aca="false">IF(ISBLANK(A65),"",C65)</f>
-        <v> TIMED_ACTIVITY_ENTRY_DESC: "§TPriorität für die Ausrüstung einstellen, mit der diese diplomatische Aktivität unterstützt wird.§!"</v>
+        <v> TIMED_ACTIVITY_ENTRY_DESC: "§T§T Priorität für die Ausrüstung einstellen, mit der diese diplomatische Aktivität unterstützt wird. §!§! "</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,11 +2232,11 @@
       </c>
       <c r="C66" s="1" t="str">
         <f aca="false">A66 &amp;" " &amp;"""" &amp;B66 &amp;""""</f>
-        <v> TIMED_ACTIVITY_ENTRY_COMPLETE_DESC: "§GMaximale Ausrüstung gesammelt.§!"</v>
+        <v> TIMED_ACTIVITY_ENTRY_COMPLETE_DESC: "§G§G Maximale Ausrüstung gesammelt. §!§! "</v>
       </c>
       <c r="D66" s="1" t="str">
         <f aca="false">IF(ISBLANK(A66),"",C66)</f>
-        <v> TIMED_ACTIVITY_ENTRY_COMPLETE_DESC: "§GMaximale Ausrüstung gesammelt.§!"</v>
+        <v> TIMED_ACTIVITY_ENTRY_COMPLETE_DESC: "§G§G Maximale Ausrüstung gesammelt. §!§! "</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2248,11 +2248,11 @@
       </c>
       <c r="C67" s="1" t="str">
         <f aca="false">A67 &amp;" " &amp;"""" &amp;B67 &amp;""""</f>
-        <v> LAND_DEPLOYMENT: "§TAuftrag für Landeinheit§!"</v>
+        <v> LAND_DEPLOYMENT: "§T§T Auftrag für Landeinheit §!§! "</v>
       </c>
       <c r="D67" s="1" t="str">
         <f aca="false">IF(ISBLANK(A67),"",C67)</f>
-        <v> LAND_DEPLOYMENT: "§TAuftrag für Landeinheit§!"</v>
+        <v> LAND_DEPLOYMENT: "§T§T Auftrag für Landeinheit §!§! "</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2264,11 +2264,11 @@
       </c>
       <c r="C68" s="1" t="str">
         <f aca="false">A68 &amp;" " &amp;"""" &amp;B68 &amp;""""</f>
-        <v> AIR_DEPLOYMENT: "§TAuftrag für Flugzeug§!"</v>
+        <v> AIR_DEPLOYMENT: "§T§T Auftrag für Flugzeug §!§! "</v>
       </c>
       <c r="D68" s="1" t="str">
         <f aca="false">IF(ISBLANK(A68),"",C68)</f>
-        <v> AIR_DEPLOYMENT: "§TAuftrag für Flugzeug§!"</v>
+        <v> AIR_DEPLOYMENT: "§T§T Auftrag für Flugzeug §!§! "</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,11 +2280,11 @@
       </c>
       <c r="C69" s="1" t="str">
         <f aca="false">A69 &amp;" " &amp;"""" &amp;B69 &amp;""""</f>
-        <v> NAVAL_DEPLOYMENT: "§TAuftrag für Schiff§!"</v>
+        <v> NAVAL_DEPLOYMENT: "§T§T Auftrag für Schiff §!§! "</v>
       </c>
       <c r="D69" s="1" t="str">
         <f aca="false">IF(ISBLANK(A69),"",C69)</f>
-        <v> NAVAL_DEPLOYMENT: "§TAuftrag für Schiff§!"</v>
+        <v> NAVAL_DEPLOYMENT: "§T§T Auftrag für Schiff §!§! "</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2424,11 +2424,11 @@
       </c>
       <c r="C78" s="1" t="str">
         <f aca="false">A78 &amp;" " &amp;"""" &amp;B78 &amp;""""</f>
-        <v> DO_NOT_CONTAINS_TEMPLATE: "§RDiese Vorlage kann nicht gelöscht werden. Das Land umfasst nicht diese Vorlage.§!"</v>
+        <v> DO_NOT_CONTAINS_TEMPLATE: "§R§R Diese Vorlage kann nicht gelöscht werden. Das Land umfasst nicht diese Vorlage. §!§! "</v>
       </c>
       <c r="D78" s="1" t="str">
         <f aca="false">IF(ISBLANK(A78),"",C78)</f>
-        <v> DO_NOT_CONTAINS_TEMPLATE: "§RDiese Vorlage kann nicht gelöscht werden. Das Land umfasst nicht diese Vorlage.§!"</v>
+        <v> DO_NOT_CONTAINS_TEMPLATE: "§R§R Diese Vorlage kann nicht gelöscht werden. Das Land umfasst nicht diese Vorlage. §!§! "</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,11 +2440,11 @@
       </c>
       <c r="C79" s="1" t="str">
         <f aca="false">A79 &amp;" " &amp;"""" &amp;B79 &amp;""""</f>
-        <v> HAS_ARMIES_WITH_TEMPLATE: "§RDiese Vorlage kann nicht gelöscht werden, da sie von $AMOUNT|H$ Division(en) verwendet wird.§!"</v>
+        <v> HAS_ARMIES_WITH_TEMPLATE: "§R§R Diese Vorlage kann nicht gelöscht werden, da sie von $AMOUNT|H$ Division(en) verwendet wird. §!§! "</v>
       </c>
       <c r="D79" s="1" t="str">
         <f aca="false">IF(ISBLANK(A79),"",C79)</f>
-        <v> HAS_ARMIES_WITH_TEMPLATE: "§RDiese Vorlage kann nicht gelöscht werden, da sie von $AMOUNT|H$ Division(en) verwendet wird.§!"</v>
+        <v> HAS_ARMIES_WITH_TEMPLATE: "§R§R Diese Vorlage kann nicht gelöscht werden, da sie von $AMOUNT|H$ Division(en) verwendet wird. §!§! "</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,11 +2456,11 @@
       </c>
       <c r="C80" s="1" t="str">
         <f aca="false">A80 &amp;" " &amp;"""" &amp;B80 &amp;""""</f>
-        <v> HAS_ARMIES_WITH_OLD_TEMPLATE: "§RDiese Vorlage kann nicht gelöscht werden, weil $AMOUNT|H$ Division(en) dabei sind, von dieser Vorlage auf eine andere zu wechseln (d.h. sie warten auf Ausrüstung, die zur neuen Vorlage passt).§!"</v>
+        <v> HAS_ARMIES_WITH_OLD_TEMPLATE: "§R§R Diese Vorlage kann nicht gelöscht werden, weil $AMOUNT|H$ Division(en) dabei sind, von dieser Vorlage auf eine andere zu wechseln (d.h. sie warten auf Ausrüstung, die zur neuen Vorlage passt). §!§! "</v>
       </c>
       <c r="D80" s="1" t="str">
         <f aca="false">IF(ISBLANK(A80),"",C80)</f>
-        <v> HAS_ARMIES_WITH_OLD_TEMPLATE: "§RDiese Vorlage kann nicht gelöscht werden, weil $AMOUNT|H$ Division(en) dabei sind, von dieser Vorlage auf eine andere zu wechseln (d.h. sie warten auf Ausrüstung, die zur neuen Vorlage passt).§!"</v>
+        <v> HAS_ARMIES_WITH_OLD_TEMPLATE: "§R§R Diese Vorlage kann nicht gelöscht werden, weil $AMOUNT|H$ Division(en) dabei sind, von dieser Vorlage auf eine andere zu wechseln (d.h. sie warten auf Ausrüstung, die zur neuen Vorlage passt). §!§! "</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,11 +2472,11 @@
       </c>
       <c r="C81" s="1" t="str">
         <f aca="false">A81 &amp;" " &amp;"""" &amp;B81 &amp;""""</f>
-        <v> HAS_DEPLOYMENT_CONVEYORS_WITH_TEMPLATE: "Diese Vorlage kann nicht aus dem Land §Rentfernt§! werden. Land hat $AMOUNT|H$ Einsätze, die diese Vorlage verwenden."</v>
+        <v> HAS_DEPLOYMENT_CONVEYORS_WITH_TEMPLATE: "Diese Vorlage kann nicht aus dem Land §R§R entfernt §!§!  werden. Land hat $AMOUNT|H$ Einsätze, die diese Vorlage verwenden."</v>
       </c>
       <c r="D81" s="1" t="str">
         <f aca="false">IF(ISBLANK(A81),"",C81)</f>
-        <v> HAS_DEPLOYMENT_CONVEYORS_WITH_TEMPLATE: "Diese Vorlage kann nicht aus dem Land §Rentfernt§! werden. Land hat $AMOUNT|H$ Einsätze, die diese Vorlage verwenden."</v>
+        <v> HAS_DEPLOYMENT_CONVEYORS_WITH_TEMPLATE: "Diese Vorlage kann nicht aus dem Land §R§R entfernt §!§!  werden. Land hat $AMOUNT|H$ Einsätze, die diese Vorlage verwenden."</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2488,11 +2488,11 @@
       </c>
       <c r="C82" s="1" t="str">
         <f aca="false">A82 &amp;" " &amp;"""" &amp;B82 &amp;""""</f>
-        <v> HAS_GARRISON_WITH_TEMPLATE: "§RDiese Vorlage kann nicht gelöscht werden, weil sie als Garnisonsvorlage für einige besetzte Gebiete verwendet wird.§!"</v>
+        <v> HAS_GARRISON_WITH_TEMPLATE: "§R§R Diese Vorlage kann nicht gelöscht werden, weil sie als Garnisonsvorlage für einige besetzte Gebiete verwendet wird. §!§! "</v>
       </c>
       <c r="D82" s="1" t="str">
         <f aca="false">IF(ISBLANK(A82),"",C82)</f>
-        <v> HAS_GARRISON_WITH_TEMPLATE: "§RDiese Vorlage kann nicht gelöscht werden, weil sie als Garnisonsvorlage für einige besetzte Gebiete verwendet wird.§!"</v>
+        <v> HAS_GARRISON_WITH_TEMPLATE: "§R§R Diese Vorlage kann nicht gelöscht werden, weil sie als Garnisonsvorlage für einige besetzte Gebiete verwendet wird. §!§! "</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,11 +2648,11 @@
       </c>
       <c r="C92" s="1" t="str">
         <f aca="false">A92 &amp;" " &amp;"""" &amp;B92 &amp;""""</f>
-        <v> ADD_CONVEYOR_LINE_BUTTON_DESC: "Fügt eine weitere Einheit $CONVEYOR|H$ zur parallelen Produktion hinzu.\n\n§GUmschalt+Maustaste§!, um 5 Einheiten hinzuzufügen"</v>
+        <v> ADD_CONVEYOR_LINE_BUTTON_DESC: "Fügt eine weitere Einheit $CONVEYOR|H$ zur parallelen Produktion hinzu.\n\n§G§G Umschalt+Maustaste §!§! , um 5 Einheiten hinzuzufügen"</v>
       </c>
       <c r="D92" s="1" t="str">
         <f aca="false">IF(ISBLANK(A92),"",C92)</f>
-        <v> ADD_CONVEYOR_LINE_BUTTON_DESC: "Fügt eine weitere Einheit $CONVEYOR|H$ zur parallelen Produktion hinzu.\n\n§GUmschalt+Maustaste§!, um 5 Einheiten hinzuzufügen"</v>
+        <v> ADD_CONVEYOR_LINE_BUTTON_DESC: "Fügt eine weitere Einheit $CONVEYOR|H$ zur parallelen Produktion hinzu.\n\n§G§G Umschalt+Maustaste §!§! , um 5 Einheiten hinzuzufügen"</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,11 +2696,11 @@
       </c>
       <c r="C95" s="1" t="str">
         <f aca="false">A95 &amp;" " &amp;"""" &amp;B95 &amp;""""</f>
-        <v> CANCEL_CONVEYOR_TOOLTIP: "Produktion aller Einheiten §Rabbrechen§!."</v>
+        <v> CANCEL_CONVEYOR_TOOLTIP: "Produktion aller Einheiten §R§R abbrechen §!§! ."</v>
       </c>
       <c r="D95" s="1" t="str">
         <f aca="false">IF(ISBLANK(A95),"",C95)</f>
-        <v> CANCEL_CONVEYOR_TOOLTIP: "Produktion aller Einheiten §Rabbrechen§!."</v>
+        <v> CANCEL_CONVEYOR_TOOLTIP: "Produktion aller Einheiten §R§R abbrechen §!§! ."</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,11 +2712,11 @@
       </c>
       <c r="C96" s="1" t="str">
         <f aca="false">A96 &amp;" " &amp;"""" &amp;B96 &amp;""""</f>
-        <v> DEPLOY_CONVEYOR_TOOLTIP: "§GKlicken§!, um alle Einheiten sofort einzusetzen."</v>
+        <v> DEPLOY_CONVEYOR_TOOLTIP: "§G§G Klicken §!§! , um alle Einheiten sofort einzusetzen."</v>
       </c>
       <c r="D96" s="1" t="str">
         <f aca="false">IF(ISBLANK(A96),"",C96)</f>
-        <v> DEPLOY_CONVEYOR_TOOLTIP: "§GKlicken§!, um alle Einheiten sofort einzusetzen."</v>
+        <v> DEPLOY_CONVEYOR_TOOLTIP: "§G§G Klicken §!§! , um alle Einheiten sofort einzusetzen."</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,11 +2728,11 @@
       </c>
       <c r="C97" s="1" t="str">
         <f aca="false">A97 &amp;" " &amp;"""" &amp;B97 &amp;""""</f>
-        <v> DEPLOY_CONVEYOR_DISABLED_TOOLTIP: "Es ist keine Einheit §Reinsatzbereit§!"</v>
+        <v> DEPLOY_CONVEYOR_DISABLED_TOOLTIP: "Es ist keine Einheit §R§R einsatzbereit §!§! "</v>
       </c>
       <c r="D97" s="1" t="str">
         <f aca="false">IF(ISBLANK(A97),"",C97)</f>
-        <v> DEPLOY_CONVEYOR_DISABLED_TOOLTIP: "Es ist keine Einheit §Reinsatzbereit§!"</v>
+        <v> DEPLOY_CONVEYOR_DISABLED_TOOLTIP: "Es ist keine Einheit §R§R einsatzbereit §!§! "</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2744,11 +2744,11 @@
       </c>
       <c r="C98" s="1" t="str">
         <f aca="false">A98 &amp;" " &amp;"""" &amp;B98 &amp;""""</f>
-        <v> CONVEYOR_CANCEL_TITLE: "§RAbbrechen§! Produktion"</v>
+        <v> CONVEYOR_CANCEL_TITLE: "§R§R Abbrechen §!§!  Produktion"</v>
       </c>
       <c r="D98" s="1" t="str">
         <f aca="false">IF(ISBLANK(A98),"",C98)</f>
-        <v> CONVEYOR_CANCEL_TITLE: "§RAbbrechen§! Produktion"</v>
+        <v> CONVEYOR_CANCEL_TITLE: "§R§R Abbrechen §!§!  Produktion"</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2760,11 +2760,11 @@
       </c>
       <c r="C99" s="1" t="str">
         <f aca="false">A99 &amp;" " &amp;"""" &amp;B99 &amp;""""</f>
-        <v> CONVEYOR_CANCEL_DESC: "Wollen Sie die Produktion aller Einheiten wirklich §Rabbrechen§!?"</v>
+        <v> CONVEYOR_CANCEL_DESC: "Wollen Sie die Produktion aller Einheiten wirklich §R§R abbrechen §!§! ?"</v>
       </c>
       <c r="D99" s="1" t="str">
         <f aca="false">IF(ISBLANK(A99),"",C99)</f>
-        <v> CONVEYOR_CANCEL_DESC: "Wollen Sie die Produktion aller Einheiten wirklich §Rabbrechen§!?"</v>
+        <v> CONVEYOR_CANCEL_DESC: "Wollen Sie die Produktion aller Einheiten wirklich §R§R abbrechen §!§! ?"</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,11 +2776,11 @@
       </c>
       <c r="C100" s="1" t="str">
         <f aca="false">A100 &amp;" " &amp;"""" &amp;B100 &amp;""""</f>
-        <v> CONVEYOR_LINE_CANCEL_DESC: "Produktion dieser Einheit §Rabbrechen§!."</v>
+        <v> CONVEYOR_LINE_CANCEL_DESC: "Produktion dieser Einheit §R§R abbrechen §!§! ."</v>
       </c>
       <c r="D100" s="1" t="str">
         <f aca="false">IF(ISBLANK(A100),"",C100)</f>
-        <v> CONVEYOR_LINE_CANCEL_DESC: "Produktion dieser Einheit §Rabbrechen§!."</v>
+        <v> CONVEYOR_LINE_CANCEL_DESC: "Produktion dieser Einheit §R§R abbrechen §!§! ."</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2792,11 +2792,11 @@
       </c>
       <c r="C101" s="1" t="str">
         <f aca="false">A101 &amp;" " &amp;"""" &amp;B101 &amp;""""</f>
-        <v> CONVEYOR_LINE_CANCEL_ACCEPT_TITLE: "Auftrag §Rabbrechen§!"</v>
+        <v> CONVEYOR_LINE_CANCEL_ACCEPT_TITLE: "Auftrag §R§R abbrechen §!§! "</v>
       </c>
       <c r="D101" s="1" t="str">
         <f aca="false">IF(ISBLANK(A101),"",C101)</f>
-        <v> CONVEYOR_LINE_CANCEL_ACCEPT_TITLE: "Auftrag §Rabbrechen§!"</v>
+        <v> CONVEYOR_LINE_CANCEL_ACCEPT_TITLE: "Auftrag §R§R abbrechen §!§! "</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2808,11 +2808,11 @@
       </c>
       <c r="C102" s="1" t="str">
         <f aca="false">A102 &amp;" " &amp;"""" &amp;B102 &amp;""""</f>
-        <v> CONVEYOR_LINE_CANCEL_ACCEPT_SINGLE_DESC: "Wollen Sie die Produktion dieses Auftrags wirklich §Rabbrechen§!?\n(Einheit wird ebenfalls §Rentfernt§! )"</v>
+        <v> CONVEYOR_LINE_CANCEL_ACCEPT_SINGLE_DESC: "Wollen Sie die Produktion dieses Auftrags wirklich §R§R abbrechen §!§! ?\n(Einheit wird ebenfalls §R§R entfernt §!§!  )"</v>
       </c>
       <c r="D102" s="1" t="str">
         <f aca="false">IF(ISBLANK(A102),"",C102)</f>
-        <v> CONVEYOR_LINE_CANCEL_ACCEPT_SINGLE_DESC: "Wollen Sie die Produktion dieses Auftrags wirklich §Rabbrechen§!?\n(Einheit wird ebenfalls §Rentfernt§! )"</v>
+        <v> CONVEYOR_LINE_CANCEL_ACCEPT_SINGLE_DESC: "Wollen Sie die Produktion dieses Auftrags wirklich §R§R abbrechen §!§! ?\n(Einheit wird ebenfalls §R§R entfernt §!§!  )"</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2824,11 +2824,11 @@
       </c>
       <c r="C103" s="1" t="str">
         <f aca="false">A103 &amp;" " &amp;"""" &amp;B103 &amp;""""</f>
-        <v> CONVEYOR_LINE_CANCEL_ACCEPT_DESC: "Wollen Sie die Produktion dieser Auftrags wirklich §Rabbrechen§!?"</v>
+        <v> CONVEYOR_LINE_CANCEL_ACCEPT_DESC: "Wollen Sie die Produktion dieser Auftrags wirklich §R§R abbrechen §!§! ?"</v>
       </c>
       <c r="D103" s="1" t="str">
         <f aca="false">IF(ISBLANK(A103),"",C103)</f>
-        <v> CONVEYOR_LINE_CANCEL_ACCEPT_DESC: "Wollen Sie die Produktion dieser Auftrags wirklich §Rabbrechen§!?"</v>
+        <v> CONVEYOR_LINE_CANCEL_ACCEPT_DESC: "Wollen Sie die Produktion dieser Auftrags wirklich §R§R abbrechen §!§! ?"</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2840,11 +2840,11 @@
       </c>
       <c r="C104" s="1" t="str">
         <f aca="false">A104 &amp;" " &amp;"""" &amp;B104 &amp;""""</f>
-        <v> CONVEYOR_GROUP_ASSIGN_DESC: "§GKlicken§!, um Einheit dem Befehl zuzuweisen.\n§GRechtsklicken§!, um Befehlszuweisung zurückzusetzen."</v>
+        <v> CONVEYOR_GROUP_ASSIGN_DESC: "§G§G Klicken §!§! , um Einheit dem Befehl zuzuweisen.\n§G§G Rechtsklicken §!§! , um Befehlszuweisung zurückzusetzen."</v>
       </c>
       <c r="D104" s="1" t="str">
         <f aca="false">IF(ISBLANK(A104),"",C104)</f>
-        <v> CONVEYOR_GROUP_ASSIGN_DESC: "§GKlicken§!, um Einheit dem Befehl zuzuweisen.\n§GRechtsklicken§!, um Befehlszuweisung zurückzusetzen."</v>
+        <v> CONVEYOR_GROUP_ASSIGN_DESC: "§G§G Klicken §!§! , um Einheit dem Befehl zuzuweisen.\n§G§G Rechtsklicken §!§! , um Befehlszuweisung zurückzusetzen."</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2888,11 +2888,11 @@
       </c>
       <c r="C107" s="1" t="str">
         <f aca="false">A107 &amp;" " &amp;"""" &amp;B107 &amp;""""</f>
-        <v> CONVEYOR_SET_LOCATION_DESC: "§GKlicken§!, um Einsatzgebiet für diese Einheit festzulegen.\n§GRechtsklicken§!, um Gebiet zurückzusetzen."</v>
+        <v> CONVEYOR_SET_LOCATION_DESC: "§G§G Klicken §!§! , um Einsatzgebiet für diese Einheit festzulegen.\n§G§G Rechtsklicken §!§! , um Gebiet zurückzusetzen."</v>
       </c>
       <c r="D107" s="1" t="str">
         <f aca="false">IF(ISBLANK(A107),"",C107)</f>
-        <v> CONVEYOR_SET_LOCATION_DESC: "§GKlicken§!, um Einsatzgebiet für diese Einheit festzulegen.\n§GRechtsklicken§!, um Gebiet zurückzusetzen."</v>
+        <v> CONVEYOR_SET_LOCATION_DESC: "§G§G Klicken §!§! , um Einsatzgebiet für diese Einheit festzulegen.\n§G§G Rechtsklicken §!§! , um Gebiet zurückzusetzen."</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2904,11 +2904,11 @@
       </c>
       <c r="C108" s="1" t="str">
         <f aca="false">A108 &amp;" " &amp;"""" &amp;B108 &amp;""""</f>
-        <v> CONVEYOR_SET_COLONIAL_LOCATION_DESC: "§GKlicken§!, um den Einsatzort für diesen Einsatz festzulegen.\n§GRechtsklicken§!, um den Ort zurückzusetzen.\n§YDiese Kolonialvorlage kann nur im Ursprungsland eingesetzt werden!§!"</v>
+        <v> CONVEYOR_SET_COLONIAL_LOCATION_DESC: "§G§G Klicken §!§! , um den Einsatzort für diesen Einsatz festzulegen.\n§G§G Rechtsklicken §!§! , um den Ort zurückzusetzen.\n§Y§Y Diese Kolonialvorlage kann nur im Ursprungsland eingesetzt werden! §!§! "</v>
       </c>
       <c r="D108" s="1" t="str">
         <f aca="false">IF(ISBLANK(A108),"",C108)</f>
-        <v> CONVEYOR_SET_COLONIAL_LOCATION_DESC: "§GKlicken§!, um den Einsatzort für diesen Einsatz festzulegen.\n§GRechtsklicken§!, um den Ort zurückzusetzen.\n§YDiese Kolonialvorlage kann nur im Ursprungsland eingesetzt werden!§!"</v>
+        <v> CONVEYOR_SET_COLONIAL_LOCATION_DESC: "§G§G Klicken §!§! , um den Einsatzort für diesen Einsatz festzulegen.\n§G§G Rechtsklicken §!§! , um den Ort zurückzusetzen.\n§Y§Y Diese Kolonialvorlage kann nur im Ursprungsland eingesetzt werden! §!§! "</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2920,11 +2920,11 @@
       </c>
       <c r="C109" s="1" t="str">
         <f aca="false">A109 &amp;" " &amp;"""" &amp;B109 &amp;""""</f>
-        <v> CONVEYOR_SET_LOCATION_NOT_SET: "§RKein Gebiet festgelegt§!"</v>
+        <v> CONVEYOR_SET_LOCATION_NOT_SET: "§R§R Kein Gebiet festgelegt §!§! "</v>
       </c>
       <c r="D109" s="1" t="str">
         <f aca="false">IF(ISBLANK(A109),"",C109)</f>
-        <v> CONVEYOR_SET_LOCATION_NOT_SET: "§RKein Gebiet festgelegt§!"</v>
+        <v> CONVEYOR_SET_LOCATION_NOT_SET: "§R§R Kein Gebiet festgelegt §!§! "</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2952,11 +2952,11 @@
       </c>
       <c r="C111" s="1" t="str">
         <f aca="false">A111 &amp;" " &amp;"""" &amp;B111 &amp;""""</f>
-        <v> CONVEYOR_LINE_DEPLOY_DESC: "§GKlicken§!, um diese Einheit sofort einzusetzen."</v>
+        <v> CONVEYOR_LINE_DEPLOY_DESC: "§G§G Klicken §!§! , um diese Einheit sofort einzusetzen."</v>
       </c>
       <c r="D111" s="1" t="str">
         <f aca="false">IF(ISBLANK(A111),"",C111)</f>
-        <v> CONVEYOR_LINE_DEPLOY_DESC: "§GKlicken§!, um diese Einheit sofort einzusetzen."</v>
+        <v> CONVEYOR_LINE_DEPLOY_DESC: "§G§G Klicken §!§! , um diese Einheit sofort einzusetzen."</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3064,11 +3064,11 @@
       </c>
       <c r="C118" s="1" t="str">
         <f aca="false">A118 &amp;" " &amp;"""" &amp;B118 &amp;""""</f>
-        <v> CONVEYOR_CAN_NOT_TRAIN: "§RNicht genügend Ausrüstung zur Ausbildung§!"</v>
+        <v> CONVEYOR_CAN_NOT_TRAIN: "§R§R Nicht genügend Ausrüstung zur Ausbildung §!§! "</v>
       </c>
       <c r="D118" s="1" t="str">
         <f aca="false">IF(ISBLANK(A118),"",C118)</f>
-        <v> CONVEYOR_CAN_NOT_TRAIN: "§RNicht genügend Ausrüstung zur Ausbildung§!"</v>
+        <v> CONVEYOR_CAN_NOT_TRAIN: "§R§R Nicht genügend Ausrüstung zur Ausbildung §!§! "</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3080,11 +3080,11 @@
       </c>
       <c r="C119" s="1" t="str">
         <f aca="false">A119 &amp;" " &amp;"""" &amp;B119 &amp;""""</f>
-        <v> CONVEYOR_CAN_NOT_MANPOWER_TRAIN: "§RNicht genügend Mannstärke zur Ausbildung§!"</v>
+        <v> CONVEYOR_CAN_NOT_MANPOWER_TRAIN: "§R§R Nicht genügend Mannstärke zur Ausbildung §!§! "</v>
       </c>
       <c r="D119" s="1" t="str">
         <f aca="false">IF(ISBLANK(A119),"",C119)</f>
-        <v> CONVEYOR_CAN_NOT_MANPOWER_TRAIN: "§RNicht genügend Mannstärke zur Ausbildung§!"</v>
+        <v> CONVEYOR_CAN_NOT_MANPOWER_TRAIN: "§R§R Nicht genügend Mannstärke zur Ausbildung §!§! "</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3096,11 +3096,11 @@
       </c>
       <c r="C120" s="1" t="str">
         <f aca="false">A120 &amp;" " &amp;"""" &amp;B120 &amp;""""</f>
-        <v> CONVEYOR_CAN_NOT_TRAIN_COUNT: "§RNicht genügend Mannstärke, um $DIVS|H$ der Divisionen auszubilden§!"</v>
+        <v> CONVEYOR_CAN_NOT_TRAIN_COUNT: "§R§R Nicht genügend Mannstärke, um $DIVS|H$ der Divisionen auszubilden §!§! "</v>
       </c>
       <c r="D120" s="1" t="str">
         <f aca="false">IF(ISBLANK(A120),"",C120)</f>
-        <v> CONVEYOR_CAN_NOT_TRAIN_COUNT: "§RNicht genügend Mannstärke, um $DIVS|H$ der Divisionen auszubilden§!"</v>
+        <v> CONVEYOR_CAN_NOT_TRAIN_COUNT: "§R§R Nicht genügend Mannstärke, um $DIVS|H$ der Divisionen auszubilden §!§! "</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3112,11 +3112,11 @@
       </c>
       <c r="C121" s="1" t="str">
         <f aca="false">A121 &amp;" " &amp;"""" &amp;B121 &amp;""""</f>
-        <v> CONVEYOR_COLLAPSE_DESC: "§GKlicken§! zum Ausklappen"</v>
+        <v> CONVEYOR_COLLAPSE_DESC: "§G§G Klicken §!§!  zum Ausklappen"</v>
       </c>
       <c r="D121" s="1" t="str">
         <f aca="false">IF(ISBLANK(A121),"",C121)</f>
-        <v> CONVEYOR_COLLAPSE_DESC: "§GKlicken§! zum Ausklappen"</v>
+        <v> CONVEYOR_COLLAPSE_DESC: "§G§G Klicken §!§!  zum Ausklappen"</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,11 +3128,11 @@
       </c>
       <c r="C122" s="1" t="str">
         <f aca="false">A122 &amp;" " &amp;"""" &amp;B122 &amp;""""</f>
-        <v> CONVEYOR_EXPAND_DESC: "§GKlicken§! zum Einklappen"</v>
+        <v> CONVEYOR_EXPAND_DESC: "§G§G Klicken §!§!  zum Einklappen"</v>
       </c>
       <c r="D122" s="1" t="str">
         <f aca="false">IF(ISBLANK(A122),"",C122)</f>
-        <v> CONVEYOR_EXPAND_DESC: "§GKlicken§! zum Einklappen"</v>
+        <v> CONVEYOR_EXPAND_DESC: "§G§G Klicken §!§!  zum Einklappen"</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3144,11 +3144,11 @@
       </c>
       <c r="C123" s="1" t="str">
         <f aca="false">A123 &amp;" " &amp;"""" &amp;B123 &amp;""""</f>
-        <v> CONVEYOR_MOVE_UP: "§GKlicken§!, um nach oben zu bewegen\n§GUmschalt+Klicken§!, um ganz nach oben zu bewegen"</v>
+        <v> CONVEYOR_MOVE_UP: "§G§G Klicken §!§! , um nach oben zu bewegen\n§G§G Umschalt+Klicken §!§! , um ganz nach oben zu bewegen"</v>
       </c>
       <c r="D123" s="1" t="str">
         <f aca="false">IF(ISBLANK(A123),"",C123)</f>
-        <v> CONVEYOR_MOVE_UP: "§GKlicken§!, um nach oben zu bewegen\n§GUmschalt+Klicken§!, um ganz nach oben zu bewegen"</v>
+        <v> CONVEYOR_MOVE_UP: "§G§G Klicken §!§! , um nach oben zu bewegen\n§G§G Umschalt+Klicken §!§! , um ganz nach oben zu bewegen"</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,11 +3160,11 @@
       </c>
       <c r="C124" s="1" t="str">
         <f aca="false">A124 &amp;" " &amp;"""" &amp;B124 &amp;""""</f>
-        <v> CONVEYOR_MOVE_DOWN: "§GKlicken§!, um nach unten zu bewegen\n§GUmschalt+Klicken§!, um ganz nach unten zu bewegen"</v>
+        <v> CONVEYOR_MOVE_DOWN: "§G§G Klicken §!§! , um nach unten zu bewegen\n§G§G Umschalt+Klicken §!§! , um ganz nach unten zu bewegen"</v>
       </c>
       <c r="D124" s="1" t="str">
         <f aca="false">IF(ISBLANK(A124),"",C124)</f>
-        <v> CONVEYOR_MOVE_DOWN: "§GKlicken§!, um nach unten zu bewegen\n§GUmschalt+Klicken§!, um ganz nach unten zu bewegen"</v>
+        <v> CONVEYOR_MOVE_DOWN: "§G§G Klicken §!§! , um nach unten zu bewegen\n§G§G Umschalt+Klicken §!§! , um ganz nach unten zu bewegen"</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,11 +3224,11 @@
       </c>
       <c r="C128" s="1" t="str">
         <f aca="false">A128 &amp;" " &amp;"""" &amp;B128 &amp;""""</f>
-        <v> CONVEYOR_HAS_BAD_LOCATION: "Das Zielgebiet für die Einheit ist §Runzulässig§!."</v>
+        <v> CONVEYOR_HAS_BAD_LOCATION: "Das Zielgebiet für die Einheit ist §R§R unzulässig §!§! ."</v>
       </c>
       <c r="D128" s="1" t="str">
         <f aca="false">IF(ISBLANK(A128),"",C128)</f>
-        <v> CONVEYOR_HAS_BAD_LOCATION: "Das Zielgebiet für die Einheit ist §Runzulässig§!."</v>
+        <v> CONVEYOR_HAS_BAD_LOCATION: "Das Zielgebiet für die Einheit ist §R§R unzulässig §!§! ."</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,11 +3288,11 @@
       </c>
       <c r="C132" s="1" t="str">
         <f aca="false">A132 &amp;" " &amp;"""" &amp;B132 &amp;""""</f>
-        <v> DEPLOYMENT_LINE_NAME_OVERRIDE_CANCEL: "§HIndividuellen Namen löschen.§!\nEs wird versucht, den ursprünglich zugewiesenen Namen wiederherzustellen, sofern dieser nicht bereits vergeben ist."</v>
+        <v> DEPLOYMENT_LINE_NAME_OVERRIDE_CANCEL: "§H§H Individuellen Namen löschen. §!§! \nEs wird versucht, den ursprünglich zugewiesenen Namen wiederherzustellen, sofern dieser nicht bereits vergeben ist."</v>
       </c>
       <c r="D132" s="1" t="str">
         <f aca="false">IF(ISBLANK(A132),"",C132)</f>
-        <v> DEPLOYMENT_LINE_NAME_OVERRIDE_CANCEL: "§HIndividuellen Namen löschen.§!\nEs wird versucht, den ursprünglich zugewiesenen Namen wiederherzustellen, sofern dieser nicht bereits vergeben ist."</v>
+        <v> DEPLOYMENT_LINE_NAME_OVERRIDE_CANCEL: "§H§H Individuellen Namen löschen. §!§! \nEs wird versucht, den ursprünglich zugewiesenen Namen wiederherzustellen, sofern dieser nicht bereits vergeben ist."</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3304,11 +3304,11 @@
       </c>
       <c r="C133" s="1" t="str">
         <f aca="false">A133 &amp;" " &amp;"""" &amp;B133 &amp;""""</f>
-        <v> DEPLOYMENT_LINE_CHOOSE_OTHER_NAME: "§HWählen Sie einen anderen historischen Namen.§!\n§GKlicken§!, um eine Liste aller noch verfügbaren historischen Namen anzuzeigen. Sie können die Gruppe der Namen ändern, indem Sie die Vorlage bearbeiten."</v>
+        <v> DEPLOYMENT_LINE_CHOOSE_OTHER_NAME: "§H§H Wählen Sie einen anderen historischen Namen. §!§! \n§G§G Klicken §!§! , um eine Liste aller noch verfügbaren historischen Namen anzuzeigen. Sie können die Gruppe der Namen ändern, indem Sie die Vorlage bearbeiten."</v>
       </c>
       <c r="D133" s="1" t="str">
         <f aca="false">IF(ISBLANK(A133),"",C133)</f>
-        <v> DEPLOYMENT_LINE_CHOOSE_OTHER_NAME: "§HWählen Sie einen anderen historischen Namen.§!\n§GKlicken§!, um eine Liste aller noch verfügbaren historischen Namen anzuzeigen. Sie können die Gruppe der Namen ändern, indem Sie die Vorlage bearbeiten."</v>
+        <v> DEPLOYMENT_LINE_CHOOSE_OTHER_NAME: "§H§H Wählen Sie einen anderen historischen Namen. §!§! \n§G§G Klicken §!§! , um eine Liste aller noch verfügbaren historischen Namen anzuzeigen. Sie können die Gruppe der Namen ändern, indem Sie die Vorlage bearbeiten."</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,11 +3320,11 @@
       </c>
       <c r="C134" s="1" t="str">
         <f aca="false">A134 &amp;" " &amp;"""" &amp;B134 &amp;""""</f>
-        <v> DEPLOYMENT_LINE_EDIT_NAME: "§GKlicken§! und tippen, um einen individuellen Namen zu verwenden."</v>
+        <v> DEPLOYMENT_LINE_EDIT_NAME: "§G§G Klicken §!§!  und tippen, um einen individuellen Namen zu verwenden."</v>
       </c>
       <c r="D134" s="1" t="str">
         <f aca="false">IF(ISBLANK(A134),"",C134)</f>
-        <v> DEPLOYMENT_LINE_EDIT_NAME: "§GKlicken§! und tippen, um einen individuellen Namen zu verwenden."</v>
+        <v> DEPLOYMENT_LINE_EDIT_NAME: "§G§G Klicken §!§!  und tippen, um einen individuellen Namen zu verwenden."</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,11 +3336,11 @@
       </c>
       <c r="C135" s="1" t="str">
         <f aca="false">A135 &amp;" " &amp;"""" &amp;B135 &amp;""""</f>
-        <v> DEPLOYMENT_LINE_OUT_OF_NAMES: "§gKeine historischen Namen mehr verfügbar.§!"</v>
+        <v> DEPLOYMENT_LINE_OUT_OF_NAMES: "§g§g Keine historischen Namen mehr verfügbar. §!§! "</v>
       </c>
       <c r="D135" s="1" t="str">
         <f aca="false">IF(ISBLANK(A135),"",C135)</f>
-        <v> DEPLOYMENT_LINE_OUT_OF_NAMES: "§gKeine historischen Namen mehr verfügbar.§!"</v>
+        <v> DEPLOYMENT_LINE_OUT_OF_NAMES: "§g§g Keine historischen Namen mehr verfügbar. §!§! "</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,11 +3352,11 @@
       </c>
       <c r="C136" s="1" t="str">
         <f aca="false">A136 &amp;" " &amp;"""" &amp;B136 &amp;""""</f>
-        <v> MISSING_SPECIAL_FORCES_CAP: "§RGrenze für Spezialeinheiten reicht nicht aus§!"</v>
+        <v> MISSING_SPECIAL_FORCES_CAP: "§R§R Grenze für Spezialeinheiten reicht nicht aus §!§! "</v>
       </c>
       <c r="D136" s="1" t="str">
         <f aca="false">IF(ISBLANK(A136),"",C136)</f>
-        <v> MISSING_SPECIAL_FORCES_CAP: "§RGrenze für Spezialeinheiten reicht nicht aus§!"</v>
+        <v> MISSING_SPECIAL_FORCES_CAP: "§R§R Grenze für Spezialeinheiten reicht nicht aus §!§! "</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,11 +3368,11 @@
       </c>
       <c r="C137" s="1" t="str">
         <f aca="false">A137 &amp;" " &amp;"""" &amp;B137 &amp;""""</f>
-        <v> EXCEEDING_DIVISION_CAP: "§RÜberschreitet das Maximum an Divisionsvorlagen§!"</v>
+        <v> EXCEEDING_DIVISION_CAP: "§R§R Überschreitet das Maximum an Divisionsvorlagen §!§! "</v>
       </c>
       <c r="D137" s="1" t="str">
         <f aca="false">IF(ISBLANK(A137),"",C137)</f>
-        <v> EXCEEDING_DIVISION_CAP: "§RÜberschreitet das Maximum an Divisionsvorlagen§!"</v>
+        <v> EXCEEDING_DIVISION_CAP: "§R§R Überschreitet das Maximum an Divisionsvorlagen §!§! "</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3432,11 +3432,11 @@
       </c>
       <c r="C141" s="1" t="str">
         <f aca="false">A141 &amp;" " &amp;"""" &amp;B141 &amp;""""</f>
-        <v> DEPLOYMENT_EXILE_WITH_NO_CAPITAL: "Als §HExilregierung§! müssen wir eine §HHauptstadt§! kontrollieren, um neue Divisionen auszubilden."</v>
+        <v> DEPLOYMENT_EXILE_WITH_NO_CAPITAL: "Als §H§H Exilregierung §!§!  müssen wir eine §H§H Hauptstadt §!§!  kontrollieren, um neue Divisionen auszubilden."</v>
       </c>
       <c r="D141" s="1" t="str">
         <f aca="false">IF(ISBLANK(A141),"",C141)</f>
-        <v> DEPLOYMENT_EXILE_WITH_NO_CAPITAL: "Als §HExilregierung§! müssen wir eine §HHauptstadt§! kontrollieren, um neue Divisionen auszubilden."</v>
+        <v> DEPLOYMENT_EXILE_WITH_NO_CAPITAL: "Als §H§H Exilregierung §!§!  müssen wir eine §H§H Hauptstadt §!§!  kontrollieren, um neue Divisionen auszubilden."</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,11 +3608,11 @@
       </c>
       <c r="C152" s="1" t="str">
         <f aca="false">A152 &amp;" " &amp;"""" &amp;B152 &amp;""""</f>
-        <v> SHOW_DECOMMISSIONED_TEMPLATES: "§HAußer Betrieb gesetzte Vorlagen§! zeigen"</v>
+        <v> SHOW_DECOMMISSIONED_TEMPLATES: "§H§H Außer Betrieb gesetzte Vorlagen §!§!  zeigen"</v>
       </c>
       <c r="D152" s="1" t="str">
         <f aca="false">IF(ISBLANK(A152),"",C152)</f>
-        <v> SHOW_DECOMMISSIONED_TEMPLATES: "§HAußer Betrieb gesetzte Vorlagen§! zeigen"</v>
+        <v> SHOW_DECOMMISSIONED_TEMPLATES: "§H§H Außer Betrieb gesetzte Vorlagen §!§!  zeigen"</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3640,11 +3640,11 @@
       </c>
       <c r="C154" s="1" t="str">
         <f aca="false">A154 &amp;" " &amp;"""" &amp;B154 &amp;""""</f>
-        <v> DECOMMISSION_TEMPLATE_TOGGLE_ON_DESC: "§GKlicken§! Sie, um diese Vorlage außer Betrieb zu setzen, wodurch sie als inaktiv markiert wird."</v>
+        <v> DECOMMISSION_TEMPLATE_TOGGLE_ON_DESC: "§G§G Klicken §!§!  Sie, um diese Vorlage außer Betrieb zu setzen, wodurch sie als inaktiv markiert wird."</v>
       </c>
       <c r="D154" s="1" t="str">
         <f aca="false">IF(ISBLANK(A154),"",C154)</f>
-        <v> DECOMMISSION_TEMPLATE_TOGGLE_ON_DESC: "§GKlicken§! Sie, um diese Vorlage außer Betrieb zu setzen, wodurch sie als inaktiv markiert wird."</v>
+        <v> DECOMMISSION_TEMPLATE_TOGGLE_ON_DESC: "§G§G Klicken §!§!  Sie, um diese Vorlage außer Betrieb zu setzen, wodurch sie als inaktiv markiert wird."</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,11 +3672,11 @@
       </c>
       <c r="C156" s="1" t="str">
         <f aca="false">A156 &amp;" " &amp;"""" &amp;B156 &amp;""""</f>
-        <v> DECOMMISSION_TEMPLATE_TOGGLE_OFF_DESC: "§GKlicken§! Sie, um diese Vorlage wieder in Betrieb zu nehmen, wodurch sie als aktiv markiert wird."</v>
+        <v> DECOMMISSION_TEMPLATE_TOGGLE_OFF_DESC: "§G§G Klicken §!§!  Sie, um diese Vorlage wieder in Betrieb zu nehmen, wodurch sie als aktiv markiert wird."</v>
       </c>
       <c r="D156" s="1" t="str">
         <f aca="false">IF(ISBLANK(A156),"",C156)</f>
-        <v> DECOMMISSION_TEMPLATE_TOGGLE_OFF_DESC: "§GKlicken§! Sie, um diese Vorlage wieder in Betrieb zu nehmen, wodurch sie als aktiv markiert wird."</v>
+        <v> DECOMMISSION_TEMPLATE_TOGGLE_OFF_DESC: "§G§G Klicken §!§!  Sie, um diese Vorlage wieder in Betrieb zu nehmen, wodurch sie als aktiv markiert wird."</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3696,1230 +3696,738 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="1" t="str">
-        <f aca="false">A158 &amp;" " &amp;"""" &amp;B158 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D158" s="1" t="str">
         <f aca="false">IF(ISBLANK(A158),"",C158)</f>
         <v/>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="1" t="str">
-        <f aca="false">A159 &amp;" " &amp;"""" &amp;B159 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D159" s="1" t="str">
         <f aca="false">IF(ISBLANK(A159),"",C159)</f>
         <v/>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="1" t="str">
-        <f aca="false">A160 &amp;" " &amp;"""" &amp;B160 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D160" s="1" t="str">
         <f aca="false">IF(ISBLANK(A160),"",C160)</f>
         <v/>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="1" t="str">
-        <f aca="false">A161 &amp;" " &amp;"""" &amp;B161 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D161" s="1" t="str">
         <f aca="false">IF(ISBLANK(A161),"",C161)</f>
         <v/>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C162" s="1" t="str">
-        <f aca="false">A162 &amp;" " &amp;"""" &amp;B162 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D162" s="1" t="str">
         <f aca="false">IF(ISBLANK(A162),"",C162)</f>
         <v/>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C163" s="1" t="str">
-        <f aca="false">A163 &amp;" " &amp;"""" &amp;B163 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D163" s="1" t="str">
         <f aca="false">IF(ISBLANK(A163),"",C163)</f>
         <v/>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C164" s="1" t="str">
-        <f aca="false">A164 &amp;" " &amp;"""" &amp;B164 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D164" s="1" t="str">
         <f aca="false">IF(ISBLANK(A164),"",C164)</f>
         <v/>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="1" t="str">
-        <f aca="false">A165 &amp;" " &amp;"""" &amp;B165 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D165" s="1" t="str">
         <f aca="false">IF(ISBLANK(A165),"",C165)</f>
         <v/>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C166" s="1" t="str">
-        <f aca="false">A166 &amp;" " &amp;"""" &amp;B166 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D166" s="1" t="str">
         <f aca="false">IF(ISBLANK(A166),"",C166)</f>
         <v/>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C167" s="1" t="str">
-        <f aca="false">A167 &amp;" " &amp;"""" &amp;B167 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D167" s="1" t="str">
         <f aca="false">IF(ISBLANK(A167),"",C167)</f>
         <v/>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C168" s="1" t="str">
-        <f aca="false">A168 &amp;" " &amp;"""" &amp;B168 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D168" s="1" t="str">
         <f aca="false">IF(ISBLANK(A168),"",C168)</f>
         <v/>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C169" s="1" t="str">
-        <f aca="false">A169 &amp;" " &amp;"""" &amp;B169 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D169" s="1" t="str">
         <f aca="false">IF(ISBLANK(A169),"",C169)</f>
         <v/>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C170" s="1" t="str">
-        <f aca="false">A170 &amp;" " &amp;"""" &amp;B170 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D170" s="1" t="str">
         <f aca="false">IF(ISBLANK(A170),"",C170)</f>
         <v/>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="1" t="str">
-        <f aca="false">A171 &amp;" " &amp;"""" &amp;B171 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D171" s="1" t="str">
         <f aca="false">IF(ISBLANK(A171),"",C171)</f>
         <v/>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="1" t="str">
-        <f aca="false">A172 &amp;" " &amp;"""" &amp;B172 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D172" s="1" t="str">
         <f aca="false">IF(ISBLANK(A172),"",C172)</f>
         <v/>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="1" t="str">
-        <f aca="false">A173 &amp;" " &amp;"""" &amp;B173 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D173" s="1" t="str">
         <f aca="false">IF(ISBLANK(A173),"",C173)</f>
         <v/>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C174" s="1" t="str">
-        <f aca="false">A174 &amp;" " &amp;"""" &amp;B174 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D174" s="1" t="str">
         <f aca="false">IF(ISBLANK(A174),"",C174)</f>
         <v/>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C175" s="1" t="str">
-        <f aca="false">A175 &amp;" " &amp;"""" &amp;B175 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D175" s="1" t="str">
         <f aca="false">IF(ISBLANK(A175),"",C175)</f>
         <v/>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C176" s="1" t="str">
-        <f aca="false">A176 &amp;" " &amp;"""" &amp;B176 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D176" s="1" t="str">
         <f aca="false">IF(ISBLANK(A176),"",C176)</f>
         <v/>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C177" s="1" t="str">
-        <f aca="false">A177 &amp;" " &amp;"""" &amp;B177 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D177" s="1" t="str">
         <f aca="false">IF(ISBLANK(A177),"",C177)</f>
         <v/>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C178" s="1" t="str">
-        <f aca="false">A178 &amp;" " &amp;"""" &amp;B178 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D178" s="1" t="str">
         <f aca="false">IF(ISBLANK(A178),"",C178)</f>
         <v/>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C179" s="1" t="str">
-        <f aca="false">A179 &amp;" " &amp;"""" &amp;B179 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D179" s="1" t="str">
         <f aca="false">IF(ISBLANK(A179),"",C179)</f>
         <v/>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C180" s="1" t="str">
-        <f aca="false">A180 &amp;" " &amp;"""" &amp;B180 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D180" s="1" t="str">
         <f aca="false">IF(ISBLANK(A180),"",C180)</f>
         <v/>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C181" s="1" t="str">
-        <f aca="false">A181 &amp;" " &amp;"""" &amp;B181 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D181" s="1" t="str">
         <f aca="false">IF(ISBLANK(A181),"",C181)</f>
         <v/>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C182" s="1" t="str">
-        <f aca="false">A182 &amp;" " &amp;"""" &amp;B182 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D182" s="1" t="str">
         <f aca="false">IF(ISBLANK(A182),"",C182)</f>
         <v/>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="1" t="str">
-        <f aca="false">A183 &amp;" " &amp;"""" &amp;B183 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D183" s="1" t="str">
         <f aca="false">IF(ISBLANK(A183),"",C183)</f>
         <v/>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="1" t="str">
-        <f aca="false">A184 &amp;" " &amp;"""" &amp;B184 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D184" s="1" t="str">
         <f aca="false">IF(ISBLANK(A184),"",C184)</f>
         <v/>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="1" t="str">
-        <f aca="false">A185 &amp;" " &amp;"""" &amp;B185 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D185" s="1" t="str">
         <f aca="false">IF(ISBLANK(A185),"",C185)</f>
         <v/>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C186" s="1" t="str">
-        <f aca="false">A186 &amp;" " &amp;"""" &amp;B186 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D186" s="1" t="str">
         <f aca="false">IF(ISBLANK(A186),"",C186)</f>
         <v/>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="1" t="str">
-        <f aca="false">A187 &amp;" " &amp;"""" &amp;B187 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D187" s="1" t="str">
         <f aca="false">IF(ISBLANK(A187),"",C187)</f>
         <v/>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C188" s="1" t="str">
-        <f aca="false">A188 &amp;" " &amp;"""" &amp;B188 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D188" s="1" t="str">
         <f aca="false">IF(ISBLANK(A188),"",C188)</f>
         <v/>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C189" s="1" t="str">
-        <f aca="false">A189 &amp;" " &amp;"""" &amp;B189 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D189" s="1" t="str">
         <f aca="false">IF(ISBLANK(A189),"",C189)</f>
         <v/>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C190" s="1" t="str">
-        <f aca="false">A190 &amp;" " &amp;"""" &amp;B190 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D190" s="1" t="str">
         <f aca="false">IF(ISBLANK(A190),"",C190)</f>
         <v/>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C191" s="1" t="str">
-        <f aca="false">A191 &amp;" " &amp;"""" &amp;B191 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D191" s="1" t="str">
         <f aca="false">IF(ISBLANK(A191),"",C191)</f>
         <v/>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C192" s="1" t="str">
-        <f aca="false">A192 &amp;" " &amp;"""" &amp;B192 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D192" s="1" t="str">
         <f aca="false">IF(ISBLANK(A192),"",C192)</f>
         <v/>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C193" s="1" t="str">
-        <f aca="false">A193 &amp;" " &amp;"""" &amp;B193 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D193" s="1" t="str">
         <f aca="false">IF(ISBLANK(A193),"",C193)</f>
         <v/>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="1" t="str">
-        <f aca="false">A194 &amp;" " &amp;"""" &amp;B194 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D194" s="1" t="str">
         <f aca="false">IF(ISBLANK(A194),"",C194)</f>
         <v/>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C195" s="1" t="str">
-        <f aca="false">A195 &amp;" " &amp;"""" &amp;B195 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D195" s="1" t="str">
         <f aca="false">IF(ISBLANK(A195),"",C195)</f>
         <v/>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C196" s="1" t="str">
-        <f aca="false">A196 &amp;" " &amp;"""" &amp;B196 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D196" s="1" t="str">
         <f aca="false">IF(ISBLANK(A196),"",C196)</f>
         <v/>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C197" s="1" t="str">
-        <f aca="false">A197 &amp;" " &amp;"""" &amp;B197 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D197" s="1" t="str">
         <f aca="false">IF(ISBLANK(A197),"",C197)</f>
         <v/>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C198" s="1" t="str">
-        <f aca="false">A198 &amp;" " &amp;"""" &amp;B198 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D198" s="1" t="str">
         <f aca="false">IF(ISBLANK(A198),"",C198)</f>
         <v/>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="1" t="str">
-        <f aca="false">A199 &amp;" " &amp;"""" &amp;B199 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D199" s="1" t="str">
         <f aca="false">IF(ISBLANK(A199),"",C199)</f>
         <v/>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="1" t="str">
-        <f aca="false">A200 &amp;" " &amp;"""" &amp;B200 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D200" s="1" t="str">
         <f aca="false">IF(ISBLANK(A200),"",C200)</f>
         <v/>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="1" t="str">
-        <f aca="false">A201 &amp;" " &amp;"""" &amp;B201 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D201" s="1" t="str">
         <f aca="false">IF(ISBLANK(A201),"",C201)</f>
         <v/>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C202" s="1" t="str">
-        <f aca="false">A202 &amp;" " &amp;"""" &amp;B202 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D202" s="1" t="str">
         <f aca="false">IF(ISBLANK(A202),"",C202)</f>
         <v/>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C203" s="1" t="str">
-        <f aca="false">A203 &amp;" " &amp;"""" &amp;B203 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D203" s="1" t="str">
         <f aca="false">IF(ISBLANK(A203),"",C203)</f>
         <v/>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="1" t="str">
-        <f aca="false">A204 &amp;" " &amp;"""" &amp;B204 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D204" s="1" t="str">
         <f aca="false">IF(ISBLANK(A204),"",C204)</f>
         <v/>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="1" t="str">
-        <f aca="false">A205 &amp;" " &amp;"""" &amp;B205 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D205" s="1" t="str">
         <f aca="false">IF(ISBLANK(A205),"",C205)</f>
         <v/>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="1" t="str">
-        <f aca="false">A206 &amp;" " &amp;"""" &amp;B206 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D206" s="1" t="str">
         <f aca="false">IF(ISBLANK(A206),"",C206)</f>
         <v/>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="1" t="str">
-        <f aca="false">A207 &amp;" " &amp;"""" &amp;B207 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D207" s="1" t="str">
         <f aca="false">IF(ISBLANK(A207),"",C207)</f>
         <v/>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C208" s="1" t="str">
-        <f aca="false">A208 &amp;" " &amp;"""" &amp;B208 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D208" s="1" t="str">
         <f aca="false">IF(ISBLANK(A208),"",C208)</f>
         <v/>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C209" s="1" t="str">
-        <f aca="false">A209 &amp;" " &amp;"""" &amp;B209 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D209" s="1" t="str">
         <f aca="false">IF(ISBLANK(A209),"",C209)</f>
         <v/>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C210" s="1" t="str">
-        <f aca="false">A210 &amp;" " &amp;"""" &amp;B210 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D210" s="1" t="str">
         <f aca="false">IF(ISBLANK(A210),"",C210)</f>
         <v/>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C211" s="1" t="str">
-        <f aca="false">A211 &amp;" " &amp;"""" &amp;B211 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D211" s="1" t="str">
         <f aca="false">IF(ISBLANK(A211),"",C211)</f>
         <v/>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C212" s="1" t="str">
-        <f aca="false">A212 &amp;" " &amp;"""" &amp;B212 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D212" s="1" t="str">
         <f aca="false">IF(ISBLANK(A212),"",C212)</f>
         <v/>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="1" t="str">
-        <f aca="false">A213 &amp;" " &amp;"""" &amp;B213 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D213" s="1" t="str">
         <f aca="false">IF(ISBLANK(A213),"",C213)</f>
         <v/>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C214" s="1" t="str">
-        <f aca="false">A214 &amp;" " &amp;"""" &amp;B214 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D214" s="1" t="str">
         <f aca="false">IF(ISBLANK(A214),"",C214)</f>
         <v/>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C215" s="1" t="str">
-        <f aca="false">A215 &amp;" " &amp;"""" &amp;B215 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D215" s="1" t="str">
         <f aca="false">IF(ISBLANK(A215),"",C215)</f>
         <v/>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C216" s="1" t="str">
-        <f aca="false">A216 &amp;" " &amp;"""" &amp;B216 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D216" s="1" t="str">
         <f aca="false">IF(ISBLANK(A216),"",C216)</f>
         <v/>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C217" s="1" t="str">
-        <f aca="false">A217 &amp;" " &amp;"""" &amp;B217 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D217" s="1" t="str">
         <f aca="false">IF(ISBLANK(A217),"",C217)</f>
         <v/>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C218" s="1" t="str">
-        <f aca="false">A218 &amp;" " &amp;"""" &amp;B218 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D218" s="1" t="str">
         <f aca="false">IF(ISBLANK(A218),"",C218)</f>
         <v/>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C219" s="1" t="str">
-        <f aca="false">A219 &amp;" " &amp;"""" &amp;B219 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D219" s="1" t="str">
         <f aca="false">IF(ISBLANK(A219),"",C219)</f>
         <v/>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C220" s="1" t="str">
-        <f aca="false">A220 &amp;" " &amp;"""" &amp;B220 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D220" s="1" t="str">
         <f aca="false">IF(ISBLANK(A220),"",C220)</f>
         <v/>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="1" t="str">
-        <f aca="false">A221 &amp;" " &amp;"""" &amp;B221 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D221" s="1" t="str">
         <f aca="false">IF(ISBLANK(A221),"",C221)</f>
         <v/>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="1" t="str">
-        <f aca="false">A222 &amp;" " &amp;"""" &amp;B222 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D222" s="1" t="str">
         <f aca="false">IF(ISBLANK(A222),"",C222)</f>
         <v/>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="1" t="str">
-        <f aca="false">A223 &amp;" " &amp;"""" &amp;B223 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D223" s="1" t="str">
         <f aca="false">IF(ISBLANK(A223),"",C223)</f>
         <v/>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="1" t="str">
-        <f aca="false">A224 &amp;" " &amp;"""" &amp;B224 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D224" s="1" t="str">
         <f aca="false">IF(ISBLANK(A224),"",C224)</f>
         <v/>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="1" t="str">
-        <f aca="false">A225 &amp;" " &amp;"""" &amp;B225 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D225" s="1" t="str">
         <f aca="false">IF(ISBLANK(A225),"",C225)</f>
         <v/>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="1" t="str">
-        <f aca="false">A226 &amp;" " &amp;"""" &amp;B226 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D226" s="1" t="str">
         <f aca="false">IF(ISBLANK(A226),"",C226)</f>
         <v/>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="1" t="str">
-        <f aca="false">A227 &amp;" " &amp;"""" &amp;B227 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D227" s="1" t="str">
         <f aca="false">IF(ISBLANK(A227),"",C227)</f>
         <v/>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C228" s="1" t="str">
-        <f aca="false">A228 &amp;" " &amp;"""" &amp;B228 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D228" s="1" t="str">
         <f aca="false">IF(ISBLANK(A228),"",C228)</f>
         <v/>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C229" s="1" t="str">
-        <f aca="false">A229 &amp;" " &amp;"""" &amp;B229 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D229" s="1" t="str">
         <f aca="false">IF(ISBLANK(A229),"",C229)</f>
         <v/>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="1" t="str">
-        <f aca="false">A230 &amp;" " &amp;"""" &amp;B230 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D230" s="1" t="str">
         <f aca="false">IF(ISBLANK(A230),"",C230)</f>
         <v/>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C231" s="1" t="str">
-        <f aca="false">A231 &amp;" " &amp;"""" &amp;B231 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D231" s="1" t="str">
         <f aca="false">IF(ISBLANK(A231),"",C231)</f>
         <v/>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="1" t="str">
-        <f aca="false">A232 &amp;" " &amp;"""" &amp;B232 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D232" s="1" t="str">
         <f aca="false">IF(ISBLANK(A232),"",C232)</f>
         <v/>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="1" t="str">
-        <f aca="false">A233 &amp;" " &amp;"""" &amp;B233 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D233" s="1" t="str">
         <f aca="false">IF(ISBLANK(A233),"",C233)</f>
         <v/>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="1" t="str">
-        <f aca="false">A234 &amp;" " &amp;"""" &amp;B234 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D234" s="1" t="str">
         <f aca="false">IF(ISBLANK(A234),"",C234)</f>
         <v/>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="1" t="str">
-        <f aca="false">A235 &amp;" " &amp;"""" &amp;B235 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D235" s="1" t="str">
         <f aca="false">IF(ISBLANK(A235),"",C235)</f>
         <v/>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C236" s="1" t="str">
-        <f aca="false">A236 &amp;" " &amp;"""" &amp;B236 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D236" s="1" t="str">
         <f aca="false">IF(ISBLANK(A236),"",C236)</f>
         <v/>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C237" s="1" t="str">
-        <f aca="false">A237 &amp;" " &amp;"""" &amp;B237 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D237" s="1" t="str">
         <f aca="false">IF(ISBLANK(A237),"",C237)</f>
         <v/>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C238" s="1" t="str">
-        <f aca="false">A238 &amp;" " &amp;"""" &amp;B238 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D238" s="1" t="str">
         <f aca="false">IF(ISBLANK(A238),"",C238)</f>
         <v/>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C239" s="1" t="str">
-        <f aca="false">A239 &amp;" " &amp;"""" &amp;B239 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D239" s="1" t="str">
         <f aca="false">IF(ISBLANK(A239),"",C239)</f>
         <v/>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C240" s="1" t="str">
-        <f aca="false">A240 &amp;" " &amp;"""" &amp;B240 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D240" s="1" t="str">
         <f aca="false">IF(ISBLANK(A240),"",C240)</f>
         <v/>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C241" s="1" t="str">
-        <f aca="false">A241 &amp;" " &amp;"""" &amp;B241 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D241" s="1" t="str">
         <f aca="false">IF(ISBLANK(A241),"",C241)</f>
         <v/>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C242" s="1" t="str">
-        <f aca="false">A242 &amp;" " &amp;"""" &amp;B242 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D242" s="1" t="str">
         <f aca="false">IF(ISBLANK(A242),"",C242)</f>
         <v/>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C243" s="1" t="str">
-        <f aca="false">A243 &amp;" " &amp;"""" &amp;B243 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D243" s="1" t="str">
         <f aca="false">IF(ISBLANK(A243),"",C243)</f>
         <v/>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="1" t="str">
-        <f aca="false">A244 &amp;" " &amp;"""" &amp;B244 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D244" s="1" t="str">
         <f aca="false">IF(ISBLANK(A244),"",C244)</f>
         <v/>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="1" t="str">
-        <f aca="false">A245 &amp;" " &amp;"""" &amp;B245 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D245" s="1" t="str">
         <f aca="false">IF(ISBLANK(A245),"",C245)</f>
         <v/>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="1" t="str">
-        <f aca="false">A246 &amp;" " &amp;"""" &amp;B246 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D246" s="1" t="str">
         <f aca="false">IF(ISBLANK(A246),"",C246)</f>
         <v/>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C247" s="1" t="str">
-        <f aca="false">A247 &amp;" " &amp;"""" &amp;B247 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D247" s="1" t="str">
         <f aca="false">IF(ISBLANK(A247),"",C247)</f>
         <v/>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C248" s="1" t="str">
-        <f aca="false">A248 &amp;" " &amp;"""" &amp;B248 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D248" s="1" t="str">
         <f aca="false">IF(ISBLANK(A248),"",C248)</f>
         <v/>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C249" s="1" t="str">
-        <f aca="false">A249 &amp;" " &amp;"""" &amp;B249 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D249" s="1" t="str">
         <f aca="false">IF(ISBLANK(A249),"",C249)</f>
         <v/>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C250" s="1" t="str">
-        <f aca="false">A250 &amp;" " &amp;"""" &amp;B250 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D250" s="1" t="str">
         <f aca="false">IF(ISBLANK(A250),"",C250)</f>
         <v/>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="1" t="str">
-        <f aca="false">A251 &amp;" " &amp;"""" &amp;B251 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D251" s="1" t="str">
         <f aca="false">IF(ISBLANK(A251),"",C251)</f>
         <v/>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="1" t="str">
-        <f aca="false">A252 &amp;" " &amp;"""" &amp;B252 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D252" s="1" t="str">
         <f aca="false">IF(ISBLANK(A252),"",C252)</f>
         <v/>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="1" t="str">
-        <f aca="false">A253 &amp;" " &amp;"""" &amp;B253 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D253" s="1" t="str">
         <f aca="false">IF(ISBLANK(A253),"",C253)</f>
         <v/>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C254" s="1" t="str">
-        <f aca="false">A254 &amp;" " &amp;"""" &amp;B254 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D254" s="1" t="str">
         <f aca="false">IF(ISBLANK(A254),"",C254)</f>
         <v/>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C255" s="1" t="str">
-        <f aca="false">A255 &amp;" " &amp;"""" &amp;B255 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D255" s="1" t="str">
         <f aca="false">IF(ISBLANK(A255),"",C255)</f>
         <v/>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C256" s="1" t="str">
-        <f aca="false">A256 &amp;" " &amp;"""" &amp;B256 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D256" s="1" t="str">
         <f aca="false">IF(ISBLANK(A256),"",C256)</f>
         <v/>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C257" s="1" t="str">
-        <f aca="false">A257 &amp;" " &amp;"""" &amp;B257 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D257" s="1" t="str">
         <f aca="false">IF(ISBLANK(A257),"",C257)</f>
         <v/>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C258" s="1" t="str">
-        <f aca="false">A258 &amp;" " &amp;"""" &amp;B258 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D258" s="1" t="str">
         <f aca="false">IF(ISBLANK(A258),"",C258)</f>
         <v/>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C259" s="1" t="str">
-        <f aca="false">A259 &amp;" " &amp;"""" &amp;B259 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D259" s="1" t="str">
         <f aca="false">IF(ISBLANK(A259),"",C259)</f>
         <v/>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C260" s="1" t="str">
-        <f aca="false">A260 &amp;" " &amp;"""" &amp;B260 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D260" s="1" t="str">
         <f aca="false">IF(ISBLANK(A260),"",C260)</f>
         <v/>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C261" s="1" t="str">
-        <f aca="false">A261 &amp;" " &amp;"""" &amp;B261 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D261" s="1" t="str">
         <f aca="false">IF(ISBLANK(A261),"",C261)</f>
         <v/>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C262" s="1" t="str">
-        <f aca="false">A262 &amp;" " &amp;"""" &amp;B262 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D262" s="1" t="str">
         <f aca="false">IF(ISBLANK(A262),"",C262)</f>
         <v/>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C263" s="1" t="str">
-        <f aca="false">A263 &amp;" " &amp;"""" &amp;B263 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D263" s="1" t="str">
         <f aca="false">IF(ISBLANK(A263),"",C263)</f>
         <v/>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C264" s="1" t="str">
-        <f aca="false">A264 &amp;" " &amp;"""" &amp;B264 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D264" s="1" t="str">
         <f aca="false">IF(ISBLANK(A264),"",C264)</f>
         <v/>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C265" s="1" t="str">
-        <f aca="false">A265 &amp;" " &amp;"""" &amp;B265 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D265" s="1" t="str">
         <f aca="false">IF(ISBLANK(A265),"",C265)</f>
         <v/>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C266" s="1" t="str">
-        <f aca="false">A266 &amp;" " &amp;"""" &amp;B266 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D266" s="1" t="str">
         <f aca="false">IF(ISBLANK(A266),"",C266)</f>
         <v/>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C267" s="1" t="str">
-        <f aca="false">A267 &amp;" " &amp;"""" &amp;B267 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D267" s="1" t="str">
         <f aca="false">IF(ISBLANK(A267),"",C267)</f>
         <v/>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C268" s="1" t="str">
-        <f aca="false">A268 &amp;" " &amp;"""" &amp;B268 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D268" s="1" t="str">
         <f aca="false">IF(ISBLANK(A268),"",C268)</f>
         <v/>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C269" s="1" t="str">
-        <f aca="false">A269 &amp;" " &amp;"""" &amp;B269 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D269" s="1" t="str">
         <f aca="false">IF(ISBLANK(A269),"",C269)</f>
         <v/>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C270" s="1" t="str">
-        <f aca="false">A270 &amp;" " &amp;"""" &amp;B270 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D270" s="1" t="str">
         <f aca="false">IF(ISBLANK(A270),"",C270)</f>
         <v/>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C271" s="1" t="str">
-        <f aca="false">A271 &amp;" " &amp;"""" &amp;B271 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D271" s="1" t="str">
         <f aca="false">IF(ISBLANK(A271),"",C271)</f>
         <v/>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="1" t="str">
-        <f aca="false">A272 &amp;" " &amp;"""" &amp;B272 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D272" s="1" t="str">
         <f aca="false">IF(ISBLANK(A272),"",C272)</f>
         <v/>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C273" s="1" t="str">
-        <f aca="false">A273 &amp;" " &amp;"""" &amp;B273 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D273" s="1" t="str">
         <f aca="false">IF(ISBLANK(A273),"",C273)</f>
         <v/>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C274" s="1" t="str">
-        <f aca="false">A274 &amp;" " &amp;"""" &amp;B274 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D274" s="1" t="str">
         <f aca="false">IF(ISBLANK(A274),"",C274)</f>
         <v/>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="1" t="str">
-        <f aca="false">A275 &amp;" " &amp;"""" &amp;B275 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D275" s="1" t="str">
         <f aca="false">IF(ISBLANK(A275),"",C275)</f>
         <v/>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="1" t="str">
-        <f aca="false">A276 &amp;" " &amp;"""" &amp;B276 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D276" s="1" t="str">
         <f aca="false">IF(ISBLANK(A276),"",C276)</f>
         <v/>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C277" s="1" t="str">
-        <f aca="false">A277 &amp;" " &amp;"""" &amp;B277 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D277" s="1" t="str">
         <f aca="false">IF(ISBLANK(A277),"",C277)</f>
         <v/>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C278" s="1" t="str">
-        <f aca="false">A278 &amp;" " &amp;"""" &amp;B278 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D278" s="1" t="str">
         <f aca="false">IF(ISBLANK(A278),"",C278)</f>
         <v/>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C279" s="1" t="str">
-        <f aca="false">A279 &amp;" " &amp;"""" &amp;B279 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D279" s="1" t="str">
         <f aca="false">IF(ISBLANK(A279),"",C279)</f>
         <v/>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C280" s="1" t="str">
-        <f aca="false">A280 &amp;" " &amp;"""" &amp;B280 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D280" s="1" t="str">
         <f aca="false">IF(ISBLANK(A280),"",C280)</f>
         <v/>
@@ -4927,2110 +4435,1266 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="2"/>
-      <c r="C281" s="1" t="str">
-        <f aca="false">A281 &amp;" " &amp;"""" &amp;B281 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D281" s="1" t="str">
         <f aca="false">IF(ISBLANK(A281),"",C281)</f>
         <v/>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C282" s="1" t="str">
-        <f aca="false">A282 &amp;" " &amp;"""" &amp;B282 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D282" s="1" t="str">
         <f aca="false">IF(ISBLANK(A282),"",C282)</f>
         <v/>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C283" s="1" t="str">
-        <f aca="false">A283 &amp;" " &amp;"""" &amp;B283 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D283" s="1" t="str">
         <f aca="false">IF(ISBLANK(A283),"",C283)</f>
         <v/>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C284" s="1" t="str">
-        <f aca="false">A284 &amp;" " &amp;"""" &amp;B284 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D284" s="1" t="str">
         <f aca="false">IF(ISBLANK(A284),"",C284)</f>
         <v/>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C285" s="1" t="str">
-        <f aca="false">A285 &amp;" " &amp;"""" &amp;B285 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D285" s="1" t="str">
         <f aca="false">IF(ISBLANK(A285),"",C285)</f>
         <v/>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C286" s="1" t="str">
-        <f aca="false">A286 &amp;" " &amp;"""" &amp;B286 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D286" s="1" t="str">
         <f aca="false">IF(ISBLANK(A286),"",C286)</f>
         <v/>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C287" s="1" t="str">
-        <f aca="false">A287 &amp;" " &amp;"""" &amp;B287 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D287" s="1" t="str">
         <f aca="false">IF(ISBLANK(A287),"",C287)</f>
         <v/>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C288" s="1" t="str">
-        <f aca="false">A288 &amp;" " &amp;"""" &amp;B288 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D288" s="1" t="str">
         <f aca="false">IF(ISBLANK(A288),"",C288)</f>
         <v/>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C289" s="1" t="str">
-        <f aca="false">A289 &amp;" " &amp;"""" &amp;B289 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D289" s="1" t="str">
         <f aca="false">IF(ISBLANK(A289),"",C289)</f>
         <v/>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="1" t="str">
-        <f aca="false">A290 &amp;" " &amp;"""" &amp;B290 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D290" s="1" t="str">
         <f aca="false">IF(ISBLANK(A290),"",C290)</f>
         <v/>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="1" t="str">
-        <f aca="false">A291 &amp;" " &amp;"""" &amp;B291 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D291" s="1" t="str">
         <f aca="false">IF(ISBLANK(A291),"",C291)</f>
         <v/>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="1" t="str">
-        <f aca="false">A292 &amp;" " &amp;"""" &amp;B292 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D292" s="1" t="str">
         <f aca="false">IF(ISBLANK(A292),"",C292)</f>
         <v/>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C293" s="1" t="str">
-        <f aca="false">A293 &amp;" " &amp;"""" &amp;B293 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D293" s="1" t="str">
         <f aca="false">IF(ISBLANK(A293),"",C293)</f>
         <v/>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C294" s="1" t="str">
-        <f aca="false">A294 &amp;" " &amp;"""" &amp;B294 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D294" s="1" t="str">
         <f aca="false">IF(ISBLANK(A294),"",C294)</f>
         <v/>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="1" t="str">
-        <f aca="false">A295 &amp;" " &amp;"""" &amp;B295 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D295" s="1" t="str">
         <f aca="false">IF(ISBLANK(A295),"",C295)</f>
         <v/>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="1" t="str">
-        <f aca="false">A296 &amp;" " &amp;"""" &amp;B296 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D296" s="1" t="str">
         <f aca="false">IF(ISBLANK(A296),"",C296)</f>
         <v/>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="1" t="str">
-        <f aca="false">A297 &amp;" " &amp;"""" &amp;B297 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D297" s="1" t="str">
         <f aca="false">IF(ISBLANK(A297),"",C297)</f>
         <v/>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C298" s="1" t="str">
-        <f aca="false">A298 &amp;" " &amp;"""" &amp;B298 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D298" s="1" t="str">
         <f aca="false">IF(ISBLANK(A298),"",C298)</f>
         <v/>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C299" s="1" t="str">
-        <f aca="false">A299 &amp;" " &amp;"""" &amp;B299 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D299" s="1" t="str">
         <f aca="false">IF(ISBLANK(A299),"",C299)</f>
         <v/>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C300" s="1" t="str">
-        <f aca="false">A300 &amp;" " &amp;"""" &amp;B300 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D300" s="1" t="str">
         <f aca="false">IF(ISBLANK(A300),"",C300)</f>
         <v/>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C301" s="1" t="str">
-        <f aca="false">A301 &amp;" " &amp;"""" &amp;B301 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D301" s="1" t="str">
         <f aca="false">IF(ISBLANK(A301),"",C301)</f>
         <v/>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C302" s="1" t="str">
-        <f aca="false">A302 &amp;" " &amp;"""" &amp;B302 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D302" s="1" t="str">
         <f aca="false">IF(ISBLANK(A302),"",C302)</f>
         <v/>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C303" s="1" t="str">
-        <f aca="false">A303 &amp;" " &amp;"""" &amp;B303 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D303" s="1" t="str">
         <f aca="false">IF(ISBLANK(A303),"",C303)</f>
         <v/>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C304" s="1" t="str">
-        <f aca="false">A304 &amp;" " &amp;"""" &amp;B304 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D304" s="1" t="str">
         <f aca="false">IF(ISBLANK(A304),"",C304)</f>
         <v/>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C305" s="1" t="str">
-        <f aca="false">A305 &amp;" " &amp;"""" &amp;B305 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D305" s="1" t="str">
         <f aca="false">IF(ISBLANK(A305),"",C305)</f>
         <v/>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C306" s="1" t="str">
-        <f aca="false">A306 &amp;" " &amp;"""" &amp;B306 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D306" s="1" t="str">
         <f aca="false">IF(ISBLANK(A306),"",C306)</f>
         <v/>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C307" s="1" t="str">
-        <f aca="false">A307 &amp;" " &amp;"""" &amp;B307 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D307" s="1" t="str">
         <f aca="false">IF(ISBLANK(A307),"",C307)</f>
         <v/>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C308" s="1" t="str">
-        <f aca="false">A308 &amp;" " &amp;"""" &amp;B308 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D308" s="1" t="str">
         <f aca="false">IF(ISBLANK(A308),"",C308)</f>
         <v/>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C309" s="1" t="str">
-        <f aca="false">A309 &amp;" " &amp;"""" &amp;B309 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D309" s="1" t="str">
         <f aca="false">IF(ISBLANK(A309),"",C309)</f>
         <v/>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C310" s="1" t="str">
-        <f aca="false">A310 &amp;" " &amp;"""" &amp;B310 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D310" s="1" t="str">
         <f aca="false">IF(ISBLANK(A310),"",C310)</f>
         <v/>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C311" s="1" t="str">
-        <f aca="false">A311 &amp;" " &amp;"""" &amp;B311 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D311" s="1" t="str">
         <f aca="false">IF(ISBLANK(A311),"",C311)</f>
         <v/>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C312" s="1" t="str">
-        <f aca="false">A312 &amp;" " &amp;"""" &amp;B312 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D312" s="1" t="str">
         <f aca="false">IF(ISBLANK(A312),"",C312)</f>
         <v/>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C313" s="1" t="str">
-        <f aca="false">A313 &amp;" " &amp;"""" &amp;B313 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D313" s="1" t="str">
         <f aca="false">IF(ISBLANK(A313),"",C313)</f>
         <v/>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C314" s="1" t="str">
-        <f aca="false">A314 &amp;" " &amp;"""" &amp;B314 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D314" s="1" t="str">
         <f aca="false">IF(ISBLANK(A314),"",C314)</f>
         <v/>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C315" s="1" t="str">
-        <f aca="false">A315 &amp;" " &amp;"""" &amp;B315 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D315" s="1" t="str">
         <f aca="false">IF(ISBLANK(A315),"",C315)</f>
         <v/>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C316" s="1" t="str">
-        <f aca="false">A316 &amp;" " &amp;"""" &amp;B316 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D316" s="1" t="str">
         <f aca="false">IF(ISBLANK(A316),"",C316)</f>
         <v/>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C317" s="1" t="str">
-        <f aca="false">A317 &amp;" " &amp;"""" &amp;B317 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D317" s="1" t="str">
         <f aca="false">IF(ISBLANK(A317),"",C317)</f>
         <v/>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C318" s="1" t="str">
-        <f aca="false">A318 &amp;" " &amp;"""" &amp;B318 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D318" s="1" t="str">
         <f aca="false">IF(ISBLANK(A318),"",C318)</f>
         <v/>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C319" s="1" t="str">
-        <f aca="false">A319 &amp;" " &amp;"""" &amp;B319 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D319" s="1" t="str">
         <f aca="false">IF(ISBLANK(A319),"",C319)</f>
         <v/>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C320" s="1" t="str">
-        <f aca="false">A320 &amp;" " &amp;"""" &amp;B320 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D320" s="1" t="str">
         <f aca="false">IF(ISBLANK(A320),"",C320)</f>
         <v/>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C321" s="1" t="str">
-        <f aca="false">A321 &amp;" " &amp;"""" &amp;B321 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D321" s="1" t="str">
         <f aca="false">IF(ISBLANK(A321),"",C321)</f>
         <v/>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C322" s="1" t="str">
-        <f aca="false">A322 &amp;" " &amp;"""" &amp;B322 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D322" s="1" t="str">
         <f aca="false">IF(ISBLANK(A322),"",C322)</f>
         <v/>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C323" s="1" t="str">
-        <f aca="false">A323 &amp;" " &amp;"""" &amp;B323 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D323" s="1" t="str">
         <f aca="false">IF(ISBLANK(A323),"",C323)</f>
         <v/>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C324" s="1" t="str">
-        <f aca="false">A324 &amp;" " &amp;"""" &amp;B324 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D324" s="1" t="str">
         <f aca="false">IF(ISBLANK(A324),"",C324)</f>
         <v/>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C325" s="1" t="str">
-        <f aca="false">A325 &amp;" " &amp;"""" &amp;B325 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D325" s="1" t="str">
         <f aca="false">IF(ISBLANK(A325),"",C325)</f>
         <v/>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C326" s="1" t="str">
-        <f aca="false">A326 &amp;" " &amp;"""" &amp;B326 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D326" s="1" t="str">
         <f aca="false">IF(ISBLANK(A326),"",C326)</f>
         <v/>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C327" s="1" t="str">
-        <f aca="false">A327 &amp;" " &amp;"""" &amp;B327 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D327" s="1" t="str">
         <f aca="false">IF(ISBLANK(A327),"",C327)</f>
         <v/>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C328" s="1" t="str">
-        <f aca="false">A328 &amp;" " &amp;"""" &amp;B328 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D328" s="1" t="str">
         <f aca="false">IF(ISBLANK(A328),"",C328)</f>
         <v/>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C329" s="1" t="str">
-        <f aca="false">A329 &amp;" " &amp;"""" &amp;B329 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D329" s="1" t="str">
         <f aca="false">IF(ISBLANK(A329),"",C329)</f>
         <v/>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C330" s="1" t="str">
-        <f aca="false">A330 &amp;" " &amp;"""" &amp;B330 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D330" s="1" t="str">
         <f aca="false">IF(ISBLANK(A330),"",C330)</f>
         <v/>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C331" s="1" t="str">
-        <f aca="false">A331 &amp;" " &amp;"""" &amp;B331 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D331" s="1" t="str">
         <f aca="false">IF(ISBLANK(A331),"",C331)</f>
         <v/>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C332" s="1" t="str">
-        <f aca="false">A332 &amp;" " &amp;"""" &amp;B332 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D332" s="1" t="str">
         <f aca="false">IF(ISBLANK(A332),"",C332)</f>
         <v/>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C333" s="1" t="str">
-        <f aca="false">A333 &amp;" " &amp;"""" &amp;B333 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D333" s="1" t="str">
         <f aca="false">IF(ISBLANK(A333),"",C333)</f>
         <v/>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C334" s="1" t="str">
-        <f aca="false">A334 &amp;" " &amp;"""" &amp;B334 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D334" s="1" t="str">
         <f aca="false">IF(ISBLANK(A334),"",C334)</f>
         <v/>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C335" s="1" t="str">
-        <f aca="false">A335 &amp;" " &amp;"""" &amp;B335 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D335" s="1" t="str">
         <f aca="false">IF(ISBLANK(A335),"",C335)</f>
         <v/>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C336" s="1" t="str">
-        <f aca="false">A336 &amp;" " &amp;"""" &amp;B336 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D336" s="1" t="str">
         <f aca="false">IF(ISBLANK(A336),"",C336)</f>
         <v/>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C337" s="1" t="str">
-        <f aca="false">A337 &amp;" " &amp;"""" &amp;B337 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D337" s="1" t="str">
         <f aca="false">IF(ISBLANK(A337),"",C337)</f>
         <v/>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C338" s="1" t="str">
-        <f aca="false">A338 &amp;" " &amp;"""" &amp;B338 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D338" s="1" t="str">
         <f aca="false">IF(ISBLANK(A338),"",C338)</f>
         <v/>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C339" s="1" t="str">
-        <f aca="false">A339 &amp;" " &amp;"""" &amp;B339 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D339" s="1" t="str">
         <f aca="false">IF(ISBLANK(A339),"",C339)</f>
         <v/>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C340" s="1" t="str">
-        <f aca="false">A340 &amp;" " &amp;"""" &amp;B340 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D340" s="1" t="str">
         <f aca="false">IF(ISBLANK(A340),"",C340)</f>
         <v/>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C341" s="1" t="str">
-        <f aca="false">A341 &amp;" " &amp;"""" &amp;B341 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D341" s="1" t="str">
         <f aca="false">IF(ISBLANK(A341),"",C341)</f>
         <v/>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C342" s="1" t="str">
-        <f aca="false">A342 &amp;" " &amp;"""" &amp;B342 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D342" s="1" t="str">
         <f aca="false">IF(ISBLANK(A342),"",C342)</f>
         <v/>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C343" s="1" t="str">
-        <f aca="false">A343 &amp;" " &amp;"""" &amp;B343 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D343" s="1" t="str">
         <f aca="false">IF(ISBLANK(A343),"",C343)</f>
         <v/>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C344" s="1" t="str">
-        <f aca="false">A344 &amp;" " &amp;"""" &amp;B344 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D344" s="1" t="str">
         <f aca="false">IF(ISBLANK(A344),"",C344)</f>
         <v/>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C345" s="1" t="str">
-        <f aca="false">A345 &amp;" " &amp;"""" &amp;B345 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D345" s="1" t="str">
         <f aca="false">IF(ISBLANK(A345),"",C345)</f>
         <v/>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C346" s="1" t="str">
-        <f aca="false">A346 &amp;" " &amp;"""" &amp;B346 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D346" s="1" t="str">
         <f aca="false">IF(ISBLANK(A346),"",C346)</f>
         <v/>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C347" s="1" t="str">
-        <f aca="false">A347 &amp;" " &amp;"""" &amp;B347 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D347" s="1" t="str">
         <f aca="false">IF(ISBLANK(A347),"",C347)</f>
         <v/>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C348" s="1" t="str">
-        <f aca="false">A348 &amp;" " &amp;"""" &amp;B348 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D348" s="1" t="str">
         <f aca="false">IF(ISBLANK(A348),"",C348)</f>
         <v/>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C349" s="1" t="str">
-        <f aca="false">A349 &amp;" " &amp;"""" &amp;B349 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D349" s="1" t="str">
         <f aca="false">IF(ISBLANK(A349),"",C349)</f>
         <v/>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C350" s="1" t="str">
-        <f aca="false">A350 &amp;" " &amp;"""" &amp;B350 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D350" s="1" t="str">
         <f aca="false">IF(ISBLANK(A350),"",C350)</f>
         <v/>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C351" s="1" t="str">
-        <f aca="false">A351 &amp;" " &amp;"""" &amp;B351 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D351" s="1" t="str">
         <f aca="false">IF(ISBLANK(A351),"",C351)</f>
         <v/>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C352" s="1" t="str">
-        <f aca="false">A352 &amp;" " &amp;"""" &amp;B352 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D352" s="1" t="str">
         <f aca="false">IF(ISBLANK(A352),"",C352)</f>
         <v/>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C353" s="1" t="str">
-        <f aca="false">A353 &amp;" " &amp;"""" &amp;B353 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D353" s="1" t="str">
         <f aca="false">IF(ISBLANK(A353),"",C353)</f>
         <v/>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C354" s="1" t="str">
-        <f aca="false">A354 &amp;" " &amp;"""" &amp;B354 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D354" s="1" t="str">
         <f aca="false">IF(ISBLANK(A354),"",C354)</f>
         <v/>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C355" s="1" t="str">
-        <f aca="false">A355 &amp;" " &amp;"""" &amp;B355 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D355" s="1" t="str">
         <f aca="false">IF(ISBLANK(A355),"",C355)</f>
         <v/>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C356" s="1" t="str">
-        <f aca="false">A356 &amp;" " &amp;"""" &amp;B356 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D356" s="1" t="str">
         <f aca="false">IF(ISBLANK(A356),"",C356)</f>
         <v/>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C357" s="1" t="str">
-        <f aca="false">A357 &amp;" " &amp;"""" &amp;B357 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D357" s="1" t="str">
         <f aca="false">IF(ISBLANK(A357),"",C357)</f>
         <v/>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C358" s="1" t="str">
-        <f aca="false">A358 &amp;" " &amp;"""" &amp;B358 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D358" s="1" t="str">
         <f aca="false">IF(ISBLANK(A358),"",C358)</f>
         <v/>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C359" s="1" t="str">
-        <f aca="false">A359 &amp;" " &amp;"""" &amp;B359 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D359" s="1" t="str">
         <f aca="false">IF(ISBLANK(A359),"",C359)</f>
         <v/>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C360" s="1" t="str">
-        <f aca="false">A360 &amp;" " &amp;"""" &amp;B360 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D360" s="1" t="str">
         <f aca="false">IF(ISBLANK(A360),"",C360)</f>
         <v/>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C361" s="1" t="str">
-        <f aca="false">A361 &amp;" " &amp;"""" &amp;B361 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D361" s="1" t="str">
         <f aca="false">IF(ISBLANK(A361),"",C361)</f>
         <v/>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C362" s="1" t="str">
-        <f aca="false">A362 &amp;" " &amp;"""" &amp;B362 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D362" s="1" t="str">
         <f aca="false">IF(ISBLANK(A362),"",C362)</f>
         <v/>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C363" s="1" t="str">
-        <f aca="false">A363 &amp;" " &amp;"""" &amp;B363 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D363" s="1" t="str">
         <f aca="false">IF(ISBLANK(A363),"",C363)</f>
         <v/>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C364" s="1" t="str">
-        <f aca="false">A364 &amp;" " &amp;"""" &amp;B364 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D364" s="1" t="str">
         <f aca="false">IF(ISBLANK(A364),"",C364)</f>
         <v/>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C365" s="1" t="str">
-        <f aca="false">A365 &amp;" " &amp;"""" &amp;B365 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D365" s="1" t="str">
         <f aca="false">IF(ISBLANK(A365),"",C365)</f>
         <v/>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C366" s="1" t="str">
-        <f aca="false">A366 &amp;" " &amp;"""" &amp;B366 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D366" s="1" t="str">
         <f aca="false">IF(ISBLANK(A366),"",C366)</f>
         <v/>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C367" s="1" t="str">
-        <f aca="false">A367 &amp;" " &amp;"""" &amp;B367 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D367" s="1" t="str">
         <f aca="false">IF(ISBLANK(A367),"",C367)</f>
         <v/>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C368" s="1" t="str">
-        <f aca="false">A368 &amp;" " &amp;"""" &amp;B368 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D368" s="1" t="str">
         <f aca="false">IF(ISBLANK(A368),"",C368)</f>
         <v/>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C369" s="1" t="str">
-        <f aca="false">A369 &amp;" " &amp;"""" &amp;B369 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D369" s="1" t="str">
         <f aca="false">IF(ISBLANK(A369),"",C369)</f>
         <v/>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C370" s="1" t="str">
-        <f aca="false">A370 &amp;" " &amp;"""" &amp;B370 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D370" s="1" t="str">
         <f aca="false">IF(ISBLANK(A370),"",C370)</f>
         <v/>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C371" s="1" t="str">
-        <f aca="false">A371 &amp;" " &amp;"""" &amp;B371 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D371" s="1" t="str">
         <f aca="false">IF(ISBLANK(A371),"",C371)</f>
         <v/>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C372" s="1" t="str">
-        <f aca="false">A372 &amp;" " &amp;"""" &amp;B372 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D372" s="1" t="str">
         <f aca="false">IF(ISBLANK(A372),"",C372)</f>
         <v/>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C373" s="1" t="str">
-        <f aca="false">A373 &amp;" " &amp;"""" &amp;B373 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D373" s="1" t="str">
         <f aca="false">IF(ISBLANK(A373),"",C373)</f>
         <v/>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C374" s="1" t="str">
-        <f aca="false">A374 &amp;" " &amp;"""" &amp;B374 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D374" s="1" t="str">
         <f aca="false">IF(ISBLANK(A374),"",C374)</f>
         <v/>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C375" s="1" t="str">
-        <f aca="false">A375 &amp;" " &amp;"""" &amp;B375 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D375" s="1" t="str">
         <f aca="false">IF(ISBLANK(A375),"",C375)</f>
         <v/>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C376" s="1" t="str">
-        <f aca="false">A376 &amp;" " &amp;"""" &amp;B376 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D376" s="1" t="str">
         <f aca="false">IF(ISBLANK(A376),"",C376)</f>
         <v/>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C377" s="1" t="str">
-        <f aca="false">A377 &amp;" " &amp;"""" &amp;B377 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D377" s="1" t="str">
         <f aca="false">IF(ISBLANK(A377),"",C377)</f>
         <v/>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C378" s="1" t="str">
-        <f aca="false">A378 &amp;" " &amp;"""" &amp;B378 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D378" s="1" t="str">
         <f aca="false">IF(ISBLANK(A378),"",C378)</f>
         <v/>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C379" s="1" t="str">
-        <f aca="false">A379 &amp;" " &amp;"""" &amp;B379 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D379" s="1" t="str">
         <f aca="false">IF(ISBLANK(A379),"",C379)</f>
         <v/>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C380" s="1" t="str">
-        <f aca="false">A380 &amp;" " &amp;"""" &amp;B380 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D380" s="1" t="str">
         <f aca="false">IF(ISBLANK(A380),"",C380)</f>
         <v/>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C381" s="1" t="str">
-        <f aca="false">A381 &amp;" " &amp;"""" &amp;B381 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D381" s="1" t="str">
         <f aca="false">IF(ISBLANK(A381),"",C381)</f>
         <v/>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C382" s="1" t="str">
-        <f aca="false">A382 &amp;" " &amp;"""" &amp;B382 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D382" s="1" t="str">
         <f aca="false">IF(ISBLANK(A382),"",C382)</f>
         <v/>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C383" s="1" t="str">
-        <f aca="false">A383 &amp;" " &amp;"""" &amp;B383 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D383" s="1" t="str">
         <f aca="false">IF(ISBLANK(A383),"",C383)</f>
         <v/>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C384" s="1" t="str">
-        <f aca="false">A384 &amp;" " &amp;"""" &amp;B384 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D384" s="1" t="str">
         <f aca="false">IF(ISBLANK(A384),"",C384)</f>
         <v/>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C385" s="1" t="str">
-        <f aca="false">A385 &amp;" " &amp;"""" &amp;B385 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D385" s="1" t="str">
         <f aca="false">IF(ISBLANK(A385),"",C385)</f>
         <v/>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C386" s="1" t="str">
-        <f aca="false">A386 &amp;" " &amp;"""" &amp;B386 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D386" s="1" t="str">
         <f aca="false">IF(ISBLANK(A386),"",C386)</f>
         <v/>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C387" s="1" t="str">
-        <f aca="false">A387 &amp;" " &amp;"""" &amp;B387 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D387" s="1" t="str">
         <f aca="false">IF(ISBLANK(A387),"",C387)</f>
         <v/>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C388" s="1" t="str">
-        <f aca="false">A388 &amp;" " &amp;"""" &amp;B388 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D388" s="1" t="str">
         <f aca="false">IF(ISBLANK(A388),"",C388)</f>
         <v/>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C389" s="1" t="str">
-        <f aca="false">A389 &amp;" " &amp;"""" &amp;B389 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D389" s="1" t="str">
         <f aca="false">IF(ISBLANK(A389),"",C389)</f>
         <v/>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C390" s="1" t="str">
-        <f aca="false">A390 &amp;" " &amp;"""" &amp;B390 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D390" s="1" t="str">
         <f aca="false">IF(ISBLANK(A390),"",C390)</f>
         <v/>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C391" s="1" t="str">
-        <f aca="false">A391 &amp;" " &amp;"""" &amp;B391 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D391" s="1" t="str">
         <f aca="false">IF(ISBLANK(A391),"",C391)</f>
         <v/>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C392" s="1" t="str">
-        <f aca="false">A392 &amp;" " &amp;"""" &amp;B392 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D392" s="1" t="str">
         <f aca="false">IF(ISBLANK(A392),"",C392)</f>
         <v/>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C393" s="1" t="str">
-        <f aca="false">A393 &amp;" " &amp;"""" &amp;B393 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D393" s="1" t="str">
         <f aca="false">IF(ISBLANK(A393),"",C393)</f>
         <v/>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C394" s="1" t="str">
-        <f aca="false">A394 &amp;" " &amp;"""" &amp;B394 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D394" s="1" t="str">
         <f aca="false">IF(ISBLANK(A394),"",C394)</f>
         <v/>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C395" s="1" t="str">
-        <f aca="false">A395 &amp;" " &amp;"""" &amp;B395 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D395" s="1" t="str">
         <f aca="false">IF(ISBLANK(A395),"",C395)</f>
         <v/>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C396" s="1" t="str">
-        <f aca="false">A396 &amp;" " &amp;"""" &amp;B396 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D396" s="1" t="str">
         <f aca="false">IF(ISBLANK(A396),"",C396)</f>
         <v/>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C397" s="1" t="str">
-        <f aca="false">A397 &amp;" " &amp;"""" &amp;B397 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D397" s="1" t="str">
         <f aca="false">IF(ISBLANK(A397),"",C397)</f>
         <v/>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C398" s="1" t="str">
-        <f aca="false">A398 &amp;" " &amp;"""" &amp;B398 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D398" s="1" t="str">
         <f aca="false">IF(ISBLANK(A398),"",C398)</f>
         <v/>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C399" s="1" t="str">
-        <f aca="false">A399 &amp;" " &amp;"""" &amp;B399 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D399" s="1" t="str">
         <f aca="false">IF(ISBLANK(A399),"",C399)</f>
         <v/>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C400" s="1" t="str">
-        <f aca="false">A400 &amp;" " &amp;"""" &amp;B400 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D400" s="1" t="str">
         <f aca="false">IF(ISBLANK(A400),"",C400)</f>
         <v/>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C401" s="1" t="str">
-        <f aca="false">A401 &amp;" " &amp;"""" &amp;B401 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D401" s="1" t="str">
         <f aca="false">IF(ISBLANK(A401),"",C401)</f>
         <v/>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C402" s="1" t="str">
-        <f aca="false">A402 &amp;" " &amp;"""" &amp;B402 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D402" s="1" t="str">
         <f aca="false">IF(ISBLANK(A402),"",C402)</f>
         <v/>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="1" t="str">
-        <f aca="false">A403 &amp;" " &amp;"""" &amp;B403 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D403" s="1" t="str">
         <f aca="false">IF(ISBLANK(A403),"",C403)</f>
         <v/>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="1" t="str">
-        <f aca="false">A404 &amp;" " &amp;"""" &amp;B404 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D404" s="1" t="str">
         <f aca="false">IF(ISBLANK(A404),"",C404)</f>
         <v/>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C405" s="1" t="str">
-        <f aca="false">A405 &amp;" " &amp;"""" &amp;B405 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D405" s="1" t="str">
         <f aca="false">IF(ISBLANK(A405),"",C405)</f>
         <v/>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C406" s="1" t="str">
-        <f aca="false">A406 &amp;" " &amp;"""" &amp;B406 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D406" s="1" t="str">
         <f aca="false">IF(ISBLANK(A406),"",C406)</f>
         <v/>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="1" t="str">
-        <f aca="false">A407 &amp;" " &amp;"""" &amp;B407 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D407" s="1" t="str">
         <f aca="false">IF(ISBLANK(A407),"",C407)</f>
         <v/>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="1" t="str">
-        <f aca="false">A408 &amp;" " &amp;"""" &amp;B408 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D408" s="1" t="str">
         <f aca="false">IF(ISBLANK(A408),"",C408)</f>
         <v/>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C409" s="1" t="str">
-        <f aca="false">A409 &amp;" " &amp;"""" &amp;B409 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D409" s="1" t="str">
         <f aca="false">IF(ISBLANK(A409),"",C409)</f>
         <v/>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C410" s="1" t="str">
-        <f aca="false">A410 &amp;" " &amp;"""" &amp;B410 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D410" s="1" t="str">
         <f aca="false">IF(ISBLANK(A410),"",C410)</f>
         <v/>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="1" t="str">
-        <f aca="false">A411 &amp;" " &amp;"""" &amp;B411 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D411" s="1" t="str">
         <f aca="false">IF(ISBLANK(A411),"",C411)</f>
         <v/>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="1" t="str">
-        <f aca="false">A412 &amp;" " &amp;"""" &amp;B412 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D412" s="1" t="str">
         <f aca="false">IF(ISBLANK(A412),"",C412)</f>
         <v/>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="1" t="str">
-        <f aca="false">A413 &amp;" " &amp;"""" &amp;B413 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D413" s="1" t="str">
         <f aca="false">IF(ISBLANK(A413),"",C413)</f>
         <v/>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C414" s="1" t="str">
-        <f aca="false">A414 &amp;" " &amp;"""" &amp;B414 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D414" s="1" t="str">
         <f aca="false">IF(ISBLANK(A414),"",C414)</f>
         <v/>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="1" t="str">
-        <f aca="false">A415 &amp;" " &amp;"""" &amp;B415 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D415" s="1" t="str">
         <f aca="false">IF(ISBLANK(A415),"",C415)</f>
         <v/>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="1" t="str">
-        <f aca="false">A416 &amp;" " &amp;"""" &amp;B416 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D416" s="1" t="str">
         <f aca="false">IF(ISBLANK(A416),"",C416)</f>
         <v/>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C417" s="1" t="str">
-        <f aca="false">A417 &amp;" " &amp;"""" &amp;B417 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D417" s="1" t="str">
         <f aca="false">IF(ISBLANK(A417),"",C417)</f>
         <v/>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C418" s="1" t="str">
-        <f aca="false">A418 &amp;" " &amp;"""" &amp;B418 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D418" s="1" t="str">
         <f aca="false">IF(ISBLANK(A418),"",C418)</f>
         <v/>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C419" s="1" t="str">
-        <f aca="false">A419 &amp;" " &amp;"""" &amp;B419 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D419" s="1" t="str">
         <f aca="false">IF(ISBLANK(A419),"",C419)</f>
         <v/>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C420" s="1" t="str">
-        <f aca="false">A420 &amp;" " &amp;"""" &amp;B420 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D420" s="1" t="str">
         <f aca="false">IF(ISBLANK(A420),"",C420)</f>
         <v/>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C421" s="1" t="str">
-        <f aca="false">A421 &amp;" " &amp;"""" &amp;B421 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D421" s="1" t="str">
         <f aca="false">IF(ISBLANK(A421),"",C421)</f>
         <v/>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C422" s="1" t="str">
-        <f aca="false">A422 &amp;" " &amp;"""" &amp;B422 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D422" s="1" t="str">
         <f aca="false">IF(ISBLANK(A422),"",C422)</f>
         <v/>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C423" s="1" t="str">
-        <f aca="false">A423 &amp;" " &amp;"""" &amp;B423 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D423" s="1" t="str">
         <f aca="false">IF(ISBLANK(A423),"",C423)</f>
         <v/>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C424" s="1" t="str">
-        <f aca="false">A424 &amp;" " &amp;"""" &amp;B424 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D424" s="1" t="str">
         <f aca="false">IF(ISBLANK(A424),"",C424)</f>
         <v/>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C425" s="1" t="str">
-        <f aca="false">A425 &amp;" " &amp;"""" &amp;B425 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D425" s="1" t="str">
         <f aca="false">IF(ISBLANK(A425),"",C425)</f>
         <v/>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C426" s="1" t="str">
-        <f aca="false">A426 &amp;" " &amp;"""" &amp;B426 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D426" s="1" t="str">
         <f aca="false">IF(ISBLANK(A426),"",C426)</f>
         <v/>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C427" s="1" t="str">
-        <f aca="false">A427 &amp;" " &amp;"""" &amp;B427 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D427" s="1" t="str">
         <f aca="false">IF(ISBLANK(A427),"",C427)</f>
         <v/>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C428" s="1" t="str">
-        <f aca="false">A428 &amp;" " &amp;"""" &amp;B428 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D428" s="1" t="str">
         <f aca="false">IF(ISBLANK(A428),"",C428)</f>
         <v/>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C429" s="1" t="str">
-        <f aca="false">A429 &amp;" " &amp;"""" &amp;B429 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D429" s="1" t="str">
         <f aca="false">IF(ISBLANK(A429),"",C429)</f>
         <v/>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C430" s="1" t="str">
-        <f aca="false">A430 &amp;" " &amp;"""" &amp;B430 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D430" s="1" t="str">
         <f aca="false">IF(ISBLANK(A430),"",C430)</f>
         <v/>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C431" s="1" t="str">
-        <f aca="false">A431 &amp;" " &amp;"""" &amp;B431 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D431" s="1" t="str">
         <f aca="false">IF(ISBLANK(A431),"",C431)</f>
         <v/>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C432" s="1" t="str">
-        <f aca="false">A432 &amp;" " &amp;"""" &amp;B432 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D432" s="1" t="str">
         <f aca="false">IF(ISBLANK(A432),"",C432)</f>
         <v/>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C433" s="1" t="str">
-        <f aca="false">A433 &amp;" " &amp;"""" &amp;B433 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D433" s="1" t="str">
         <f aca="false">IF(ISBLANK(A433),"",C433)</f>
         <v/>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C434" s="1" t="str">
-        <f aca="false">A434 &amp;" " &amp;"""" &amp;B434 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D434" s="1" t="str">
         <f aca="false">IF(ISBLANK(A434),"",C434)</f>
         <v/>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C435" s="1" t="str">
-        <f aca="false">A435 &amp;" " &amp;"""" &amp;B435 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D435" s="1" t="str">
         <f aca="false">IF(ISBLANK(A435),"",C435)</f>
         <v/>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="1" t="str">
-        <f aca="false">A436 &amp;" " &amp;"""" &amp;B436 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D436" s="1" t="str">
         <f aca="false">IF(ISBLANK(A436),"",C436)</f>
         <v/>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C437" s="1" t="str">
-        <f aca="false">A437 &amp;" " &amp;"""" &amp;B437 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D437" s="1" t="str">
         <f aca="false">IF(ISBLANK(A437),"",C437)</f>
         <v/>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="1" t="str">
-        <f aca="false">A438 &amp;" " &amp;"""" &amp;B438 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D438" s="1" t="str">
         <f aca="false">IF(ISBLANK(A438),"",C438)</f>
         <v/>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C439" s="1" t="str">
-        <f aca="false">A439 &amp;" " &amp;"""" &amp;B439 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D439" s="1" t="str">
         <f aca="false">IF(ISBLANK(A439),"",C439)</f>
         <v/>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="1" t="str">
-        <f aca="false">A440 &amp;" " &amp;"""" &amp;B440 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D440" s="1" t="str">
         <f aca="false">IF(ISBLANK(A440),"",C440)</f>
         <v/>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="1" t="str">
-        <f aca="false">A441 &amp;" " &amp;"""" &amp;B441 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D441" s="1" t="str">
         <f aca="false">IF(ISBLANK(A441),"",C441)</f>
         <v/>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="1" t="str">
-        <f aca="false">A442 &amp;" " &amp;"""" &amp;B442 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D442" s="1" t="str">
         <f aca="false">IF(ISBLANK(A442),"",C442)</f>
         <v/>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="1" t="str">
-        <f aca="false">A443 &amp;" " &amp;"""" &amp;B443 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D443" s="1" t="str">
         <f aca="false">IF(ISBLANK(A443),"",C443)</f>
         <v/>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="1" t="str">
-        <f aca="false">A444 &amp;" " &amp;"""" &amp;B444 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D444" s="1" t="str">
         <f aca="false">IF(ISBLANK(A444),"",C444)</f>
         <v/>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="1" t="str">
-        <f aca="false">A445 &amp;" " &amp;"""" &amp;B445 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D445" s="1" t="str">
         <f aca="false">IF(ISBLANK(A445),"",C445)</f>
         <v/>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="1" t="str">
-        <f aca="false">A446 &amp;" " &amp;"""" &amp;B446 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D446" s="1" t="str">
         <f aca="false">IF(ISBLANK(A446),"",C446)</f>
         <v/>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="1" t="str">
-        <f aca="false">A447 &amp;" " &amp;"""" &amp;B447 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D447" s="1" t="str">
         <f aca="false">IF(ISBLANK(A447),"",C447)</f>
         <v/>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="1" t="str">
-        <f aca="false">A448 &amp;" " &amp;"""" &amp;B448 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D448" s="1" t="str">
         <f aca="false">IF(ISBLANK(A448),"",C448)</f>
         <v/>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="1" t="str">
-        <f aca="false">A449 &amp;" " &amp;"""" &amp;B449 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D449" s="1" t="str">
         <f aca="false">IF(ISBLANK(A449),"",C449)</f>
         <v/>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="1" t="str">
-        <f aca="false">A450 &amp;" " &amp;"""" &amp;B450 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D450" s="1" t="str">
         <f aca="false">IF(ISBLANK(A450),"",C450)</f>
         <v/>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="1" t="str">
-        <f aca="false">A451 &amp;" " &amp;"""" &amp;B451 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D451" s="1" t="str">
         <f aca="false">IF(ISBLANK(A451),"",C451)</f>
         <v/>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="1" t="str">
-        <f aca="false">A452 &amp;" " &amp;"""" &amp;B452 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D452" s="1" t="str">
         <f aca="false">IF(ISBLANK(A452),"",C452)</f>
         <v/>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="1" t="str">
-        <f aca="false">A453 &amp;" " &amp;"""" &amp;B453 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D453" s="1" t="str">
         <f aca="false">IF(ISBLANK(A453),"",C453)</f>
         <v/>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="1" t="str">
-        <f aca="false">A454 &amp;" " &amp;"""" &amp;B454 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D454" s="1" t="str">
         <f aca="false">IF(ISBLANK(A454),"",C454)</f>
         <v/>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="1" t="str">
-        <f aca="false">A455 &amp;" " &amp;"""" &amp;B455 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D455" s="1" t="str">
         <f aca="false">IF(ISBLANK(A455),"",C455)</f>
         <v/>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="1" t="str">
-        <f aca="false">A456 &amp;" " &amp;"""" &amp;B456 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D456" s="1" t="str">
         <f aca="false">IF(ISBLANK(A456),"",C456)</f>
         <v/>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="1" t="str">
-        <f aca="false">A457 &amp;" " &amp;"""" &amp;B457 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D457" s="1" t="str">
         <f aca="false">IF(ISBLANK(A457),"",C457)</f>
         <v/>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="1" t="str">
-        <f aca="false">A458 &amp;" " &amp;"""" &amp;B458 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D458" s="1" t="str">
         <f aca="false">IF(ISBLANK(A458),"",C458)</f>
         <v/>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="1" t="str">
-        <f aca="false">A459 &amp;" " &amp;"""" &amp;B459 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D459" s="1" t="str">
         <f aca="false">IF(ISBLANK(A459),"",C459)</f>
         <v/>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="1" t="str">
-        <f aca="false">A460 &amp;" " &amp;"""" &amp;B460 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D460" s="1" t="str">
         <f aca="false">IF(ISBLANK(A460),"",C460)</f>
         <v/>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="1" t="str">
-        <f aca="false">A461 &amp;" " &amp;"""" &amp;B461 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D461" s="1" t="str">
         <f aca="false">IF(ISBLANK(A461),"",C461)</f>
         <v/>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="1" t="str">
-        <f aca="false">A462 &amp;" " &amp;"""" &amp;B462 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D462" s="1" t="str">
         <f aca="false">IF(ISBLANK(A462),"",C462)</f>
         <v/>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="1" t="str">
-        <f aca="false">A463 &amp;" " &amp;"""" &amp;B463 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D463" s="1" t="str">
         <f aca="false">IF(ISBLANK(A463),"",C463)</f>
         <v/>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="1" t="str">
-        <f aca="false">A464 &amp;" " &amp;"""" &amp;B464 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D464" s="1" t="str">
         <f aca="false">IF(ISBLANK(A464),"",C464)</f>
         <v/>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="1" t="str">
-        <f aca="false">A465 &amp;" " &amp;"""" &amp;B465 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D465" s="1" t="str">
         <f aca="false">IF(ISBLANK(A465),"",C465)</f>
         <v/>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="1" t="str">
-        <f aca="false">A466 &amp;" " &amp;"""" &amp;B466 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D466" s="1" t="str">
         <f aca="false">IF(ISBLANK(A466),"",C466)</f>
         <v/>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="1" t="str">
-        <f aca="false">A467 &amp;" " &amp;"""" &amp;B467 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D467" s="1" t="str">
         <f aca="false">IF(ISBLANK(A467),"",C467)</f>
         <v/>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="1" t="str">
-        <f aca="false">A468 &amp;" " &amp;"""" &amp;B468 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D468" s="1" t="str">
         <f aca="false">IF(ISBLANK(A468),"",C468)</f>
         <v/>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="1" t="str">
-        <f aca="false">A469 &amp;" " &amp;"""" &amp;B469 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D469" s="1" t="str">
         <f aca="false">IF(ISBLANK(A469),"",C469)</f>
         <v/>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="1" t="str">
-        <f aca="false">A470 &amp;" " &amp;"""" &amp;B470 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D470" s="1" t="str">
         <f aca="false">IF(ISBLANK(A470),"",C470)</f>
         <v/>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="1" t="str">
-        <f aca="false">A471 &amp;" " &amp;"""" &amp;B471 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D471" s="1" t="str">
         <f aca="false">IF(ISBLANK(A471),"",C471)</f>
         <v/>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="1" t="str">
-        <f aca="false">A472 &amp;" " &amp;"""" &amp;B472 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D472" s="1" t="str">
         <f aca="false">IF(ISBLANK(A472),"",C472)</f>
         <v/>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="1" t="str">
-        <f aca="false">A473 &amp;" " &amp;"""" &amp;B473 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D473" s="1" t="str">
         <f aca="false">IF(ISBLANK(A473),"",C473)</f>
         <v/>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="1" t="str">
-        <f aca="false">A474 &amp;" " &amp;"""" &amp;B474 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D474" s="1" t="str">
         <f aca="false">IF(ISBLANK(A474),"",C474)</f>
         <v/>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="1" t="str">
-        <f aca="false">A475 &amp;" " &amp;"""" &amp;B475 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D475" s="1" t="str">
         <f aca="false">IF(ISBLANK(A475),"",C475)</f>
         <v/>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="1" t="str">
-        <f aca="false">A476 &amp;" " &amp;"""" &amp;B476 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D476" s="1" t="str">
         <f aca="false">IF(ISBLANK(A476),"",C476)</f>
         <v/>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="1" t="str">
-        <f aca="false">A477 &amp;" " &amp;"""" &amp;B477 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D477" s="1" t="str">
         <f aca="false">IF(ISBLANK(A477),"",C477)</f>
         <v/>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="1" t="str">
-        <f aca="false">A478 &amp;" " &amp;"""" &amp;B478 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D478" s="1" t="str">
         <f aca="false">IF(ISBLANK(A478),"",C478)</f>
         <v/>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="1" t="str">
-        <f aca="false">A479 &amp;" " &amp;"""" &amp;B479 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D479" s="1" t="str">
         <f aca="false">IF(ISBLANK(A479),"",C479)</f>
         <v/>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="1" t="str">
-        <f aca="false">A480 &amp;" " &amp;"""" &amp;B480 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D480" s="1" t="str">
         <f aca="false">IF(ISBLANK(A480),"",C480)</f>
         <v/>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="1" t="str">
-        <f aca="false">A481 &amp;" " &amp;"""" &amp;B481 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D481" s="1" t="str">
         <f aca="false">IF(ISBLANK(A481),"",C481)</f>
         <v/>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="1" t="str">
-        <f aca="false">A482 &amp;" " &amp;"""" &amp;B482 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D482" s="1" t="str">
         <f aca="false">IF(ISBLANK(A482),"",C482)</f>
         <v/>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="1" t="str">
-        <f aca="false">A483 &amp;" " &amp;"""" &amp;B483 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D483" s="1" t="str">
         <f aca="false">IF(ISBLANK(A483),"",C483)</f>
         <v/>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="1" t="str">
-        <f aca="false">A484 &amp;" " &amp;"""" &amp;B484 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D484" s="1" t="str">
         <f aca="false">IF(ISBLANK(A484),"",C484)</f>
         <v/>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="1" t="str">
-        <f aca="false">A485 &amp;" " &amp;"""" &amp;B485 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D485" s="1" t="str">
         <f aca="false">IF(ISBLANK(A485),"",C485)</f>
         <v/>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="1" t="str">
-        <f aca="false">A486 &amp;" " &amp;"""" &amp;B486 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D486" s="1" t="str">
         <f aca="false">IF(ISBLANK(A486),"",C486)</f>
         <v/>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="1" t="str">
-        <f aca="false">A487 &amp;" " &amp;"""" &amp;B487 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D487" s="1" t="str">
         <f aca="false">IF(ISBLANK(A487),"",C487)</f>
         <v/>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="1" t="str">
-        <f aca="false">A488 &amp;" " &amp;"""" &amp;B488 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D488" s="1" t="str">
         <f aca="false">IF(ISBLANK(A488),"",C488)</f>
         <v/>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="1" t="str">
-        <f aca="false">A489 &amp;" " &amp;"""" &amp;B489 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D489" s="1" t="str">
         <f aca="false">IF(ISBLANK(A489),"",C489)</f>
         <v/>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="1" t="str">
-        <f aca="false">A490 &amp;" " &amp;"""" &amp;B490 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D490" s="1" t="str">
         <f aca="false">IF(ISBLANK(A490),"",C490)</f>
         <v/>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="1" t="str">
-        <f aca="false">A491 &amp;" " &amp;"""" &amp;B491 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D491" s="1" t="str">
         <f aca="false">IF(ISBLANK(A491),"",C491)</f>
         <v/>
